--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="307">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -363,547 +363,553 @@
     <t xml:space="preserve">2021/02/11</t>
   </si>
   <si>
+    <t xml:space="preserve">2021/02/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/02/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp [C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time/rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3K/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stiring time [h]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEATING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test, heating rate max with scratch in middle, discarded </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frist sample, not entirely homogeneous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from room temperature (RT) orientation when blading ((0,0)(1,0), horizontal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from RT, ((0,0)(1,1), diagonal) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from RT, ((0,0)(0,1), vertical) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 40C ((0,0)(0,1), vertical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZnO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C, didn’t stir and hole in parafilm for 10-20 hours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1/1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C// second layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2/1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1/1-3/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2/1-3/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C// second layer // TIXO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-4/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C // TIXO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 80-100-cool 2h-100-150…//TESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 80C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-1/2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-1/3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-1/4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-1/5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-1/6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-1/7-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double tape </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runter gefallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop aged sol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/12/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 days before calcination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doble conc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spin coating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x/10x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long sample 24 tage pause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT2 twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F,HG,DOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/01/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F,HG,DOC,old(milky)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3F,HG,DOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5F,HG,noDOC, noPYRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5F,HG,noDOC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F*,HG,DOC(milky)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F,SC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F,vDOC=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3F,VDOC=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL, no vacuum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL, too bend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x (3x dbv1, 1x dbv0.5, 1xdbv0.1, 5xdbv0.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nolayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vDOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tvel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tcal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021/02/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temp [C]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time/rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2K/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1K/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3K/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seed layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stiring time [h]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">layers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEATING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test, heating rate max with scratch in middle, discarded </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frist sample, not entirely homogeneous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from room temperature (RT) orientation when blading ((0,0)(1,0), horizontal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from RT, ((0,0)(1,1), diagonal) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from RT, ((0,0)(0,1), vertical) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 40C ((0,0)(0,1), vertical)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZnO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C, didn’t stir and hole in parafilm for 10-20 hours </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1/1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C// second layer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2/1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1/1-3/1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2/1-3/1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3/1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2/1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C// second layer // TIXO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-4/1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C // TIXO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 80-100-cool 2h-100-150…//TESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 80C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-1/2-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-1/3-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-1/4-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.11.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-1/5-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-1/6-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-1/7-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double tape </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.11.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runter gefallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drop aged sol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.12.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/12/02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 days before calcination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doble conc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spin coating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.01.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5x/10x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long sample 24 tage pause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT2 twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4F,HG,DOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021/01/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4F,HG,DOC,old(milky)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3F,HG,DOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5F,HG,noDOC, noPYRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5F,HG,noDOC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4F*,HG,DOC(milky)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4F,SC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2F,vDOC=10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3F,VDOC=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAIL, no vacuum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAIL, too bend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x (3x dbv1, 1x dbv0.5, 1xdbv0.1, 5xdbv0.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nolayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vDOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tvel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tcal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
   </si>
   <si>
     <t xml:space="preserve">SC1</t>
@@ -2440,15 +2446,15 @@
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="96" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="96" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="2.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.13"/>
@@ -4496,29 +4502,74 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="96" t="str">
+      <c r="A56" s="96" t="n">
         <f aca="false">IF(ISBLANK(H56),"", H56/(G56+L56)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C56" s="103" t="str">
+        <v>1.72463768115942</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C56" s="103" t="n">
         <f aca="false">IF(ISBLANK(H56),"",H56/G56*(G$13/H$13))</f>
-        <v/>
+        <v>2.02040816326531</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="96" t="str">
+      <c r="A57" s="96" t="n">
         <f aca="false">IF(ISBLANK(H57),"", H57/(G57+L57)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C57" s="103" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C57" s="103" t="n">
         <f aca="false">IF(ISBLANK(H57),"",H57/G57*(G$13/H$13))</f>
-        <v/>
+        <v>4.125</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="96" t="str">
         <f aca="false">IF(ISBLANK(H58),"", H58/(G58+L58)*(($G$13+$L$13)/$H$13))</f>
         <v/>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="C58" s="103" t="str">
         <f aca="false">IF(ISBLANK(H58),"",H58/G58*(G$13/H$13))</f>
@@ -4777,406 +4828,406 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="U1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AA1" s="101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>150</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>160</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>170</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>180</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>190</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>200</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>250</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>300</v>
       </c>
       <c r="W2" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>350</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>400</v>
       </c>
       <c r="AA2" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>160</v>
       </c>
       <c r="I3" s="101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>170</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>180</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>190</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>200</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>250</v>
       </c>
       <c r="S3" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>300</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>350</v>
       </c>
       <c r="W3" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>400</v>
       </c>
       <c r="Y3" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>500</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5199,7 +5250,7 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="J269" activeCellId="0" sqref="J269"/>
@@ -5231,31 +5282,31 @@
         <v>51</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,31 +5320,31 @@
         <v>0</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -5302,13 +5353,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5318,13 +5369,13 @@
         <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5338,13 +5389,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5354,13 +5405,13 @@
         <v>60</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,13 +5425,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5390,13 +5441,13 @@
         <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5410,13 +5461,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5426,13 +5477,13 @@
         <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,13 +5497,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5462,18 +5513,18 @@
         <v>60</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -5482,33 +5533,33 @@
         <v>2</v>
       </c>
       <c r="D8" s="106" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -5517,33 +5568,33 @@
         <v>2</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -5552,13 +5603,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="106" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5568,18 +5619,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -5588,13 +5639,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="106" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5604,18 +5655,18 @@
         <v>20</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -5624,33 +5675,33 @@
         <v>2</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -5659,33 +5710,33 @@
         <v>2</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -5694,13 +5745,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="106" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5710,18 +5761,18 @@
         <v>60</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -5730,13 +5781,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="106" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5746,13 +5797,13 @@
         <v>60</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,13 +5817,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5782,13 +5833,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5802,13 +5853,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="106" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5818,13 +5869,13 @@
         <v>20</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,13 +5889,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="106" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5854,13 +5905,13 @@
         <v>20</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5874,13 +5925,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="106" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5890,13 +5941,13 @@
         <v>20</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5910,13 +5961,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5926,13 +5977,13 @@
         <v>20</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,13 +5997,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="106" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5962,13 +6013,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5982,13 +6033,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="106" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5998,13 +6049,13 @@
         <v>20</v>
       </c>
       <c r="I22" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,13 +6069,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="106" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6034,13 +6085,13 @@
         <v>20</v>
       </c>
       <c r="I23" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6054,13 +6105,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="106" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6070,13 +6121,13 @@
         <v>20</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6090,33 +6141,33 @@
         <v>4</v>
       </c>
       <c r="D25" s="106" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -6125,33 +6176,33 @@
         <v>4</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -6160,30 +6211,30 @@
         <v>4</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -6192,31 +6243,31 @@
         <v>4</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -6225,30 +6276,30 @@
         <v>4</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -6257,31 +6308,31 @@
         <v>1</v>
       </c>
       <c r="D30" s="106" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -6290,31 +6341,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="106" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -6323,31 +6374,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="106" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3</v>
@@ -6356,31 +6407,31 @@
         <v>1</v>
       </c>
       <c r="D33" s="106" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -6389,28 +6440,28 @@
         <v>4</v>
       </c>
       <c r="D34" s="106" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -6419,27 +6470,27 @@
         <v>4</v>
       </c>
       <c r="D35" s="106" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -6448,28 +6499,28 @@
         <v>1</v>
       </c>
       <c r="D36" s="106" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -6478,27 +6529,27 @@
         <v>1</v>
       </c>
       <c r="D37" s="106" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3</v>
@@ -6507,28 +6558,28 @@
         <v>1</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>3</v>
@@ -6537,27 +6588,27 @@
         <v>1</v>
       </c>
       <c r="D39" s="106" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -6566,31 +6617,31 @@
         <v>4</v>
       </c>
       <c r="D40" s="106" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -6599,33 +6650,33 @@
         <v>4</v>
       </c>
       <c r="D41" s="106" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L41" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -6634,31 +6685,31 @@
         <v>1</v>
       </c>
       <c r="D42" s="106" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
@@ -6667,33 +6718,33 @@
         <v>1</v>
       </c>
       <c r="D43" s="106" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L43" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3</v>
@@ -6702,31 +6753,31 @@
         <v>1</v>
       </c>
       <c r="D44" s="106" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3</v>
@@ -6735,33 +6786,33 @@
         <v>1</v>
       </c>
       <c r="D45" s="106" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L45" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -6770,28 +6821,28 @@
         <v>4</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -6800,27 +6851,27 @@
         <v>4</v>
       </c>
       <c r="D47" s="106" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2</v>
@@ -6832,18 +6883,18 @@
         <v>24</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2</v>
@@ -6855,21 +6906,21 @@
         <v>25</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>3</v>
@@ -6881,18 +6932,18 @@
         <v>26</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>3</v>
@@ -6904,21 +6955,21 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -6930,18 +6981,18 @@
         <v>22</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
@@ -6953,21 +7004,21 @@
         <v>23</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
@@ -6979,18 +7030,18 @@
         <v>24</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -7002,21 +7053,21 @@
         <v>25</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -7028,18 +7079,18 @@
         <v>26</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -7051,21 +7102,21 @@
         <v>27</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -7077,18 +7128,18 @@
         <v>38</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -7100,21 +7151,21 @@
         <v>39</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -7126,18 +7177,18 @@
         <v>40</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
@@ -7149,21 +7200,21 @@
         <v>41</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -7175,18 +7226,18 @@
         <v>28</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
@@ -7198,21 +7249,21 @@
         <v>29</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1</v>
@@ -7224,18 +7275,18 @@
         <v>42</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1</v>
@@ -7247,21 +7298,21 @@
         <v>43</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2</v>
@@ -7273,18 +7324,18 @@
         <v>34</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -7296,21 +7347,21 @@
         <v>35</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -7322,18 +7373,18 @@
         <v>44</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -7345,16 +7396,16 @@
         <v>45</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7371,13 +7422,13 @@
         <v>28</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7394,19 +7445,19 @@
         <v>29</v>
       </c>
       <c r="F71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="L71" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,13 +7474,13 @@
         <v>42</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7446,16 +7497,16 @@
         <v>43</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7472,13 +7523,13 @@
         <v>34</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,16 +7546,16 @@
         <v>35</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,13 +7572,13 @@
         <v>44</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7544,21 +7595,21 @@
         <v>45</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -7570,18 +7621,18 @@
         <v>46</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>4</v>
@@ -7593,21 +7644,21 @@
         <v>47</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>5</v>
@@ -7619,18 +7670,18 @@
         <v>48</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -7642,21 +7693,21 @@
         <v>49</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -7668,18 +7719,18 @@
         <v>50</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -7691,21 +7742,21 @@
         <v>51</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -7717,18 +7768,18 @@
         <v>52</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>7</v>
@@ -7740,21 +7791,21 @@
         <v>53</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>4</v>
@@ -7766,21 +7817,21 @@
         <v>46</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -7792,21 +7843,21 @@
         <v>47</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -7818,18 +7869,18 @@
         <v>48</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>5</v>
@@ -7841,21 +7892,21 @@
         <v>49</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>6</v>
@@ -7867,18 +7918,18 @@
         <v>50</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>6</v>
@@ -7890,21 +7941,21 @@
         <v>51</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>7</v>
@@ -7916,18 +7967,18 @@
         <v>52</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>7</v>
@@ -7939,21 +7990,21 @@
         <v>53</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>4</v>
@@ -7965,18 +8016,18 @@
         <v>54</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
@@ -7988,21 +8039,21 @@
         <v>55</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -8014,18 +8065,18 @@
         <v>56</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>5</v>
@@ -8037,21 +8088,21 @@
         <v>57</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>6</v>
@@ -8063,18 +8114,18 @@
         <v>58</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>6</v>
@@ -8086,21 +8137,21 @@
         <v>59</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>7</v>
@@ -8112,18 +8163,18 @@
         <v>60</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>7</v>
@@ -8135,21 +8186,21 @@
         <v>61</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>4</v>
@@ -8161,21 +8212,21 @@
         <v>54</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>4</v>
@@ -8187,21 +8238,21 @@
         <v>55</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>5</v>
@@ -8213,18 +8264,18 @@
         <v>56</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>5</v>
@@ -8236,21 +8287,21 @@
         <v>57</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>6</v>
@@ -8262,18 +8313,18 @@
         <v>58</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
@@ -8285,21 +8336,21 @@
         <v>59</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>7</v>
@@ -8311,18 +8362,18 @@
         <v>60</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>7</v>
@@ -8334,21 +8385,21 @@
         <v>61</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>4</v>
@@ -8360,18 +8411,18 @@
         <v>62</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -8383,21 +8434,21 @@
         <v>63</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -8409,18 +8460,18 @@
         <v>64</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>5</v>
@@ -8432,21 +8483,21 @@
         <v>65</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>6</v>
@@ -8458,18 +8509,18 @@
         <v>66</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
@@ -8481,21 +8532,21 @@
         <v>67</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>7</v>
@@ -8507,18 +8558,18 @@
         <v>68</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>7</v>
@@ -8530,21 +8581,21 @@
         <v>69</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>4</v>
@@ -8556,21 +8607,21 @@
         <v>62</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>4</v>
@@ -8582,21 +8633,21 @@
         <v>63</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>5</v>
@@ -8608,18 +8659,18 @@
         <v>64</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>5</v>
@@ -8631,21 +8682,21 @@
         <v>65</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>6</v>
@@ -8657,18 +8708,18 @@
         <v>66</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
@@ -8680,21 +8731,21 @@
         <v>67</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>7</v>
@@ -8706,18 +8757,18 @@
         <v>68</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -8729,21 +8780,21 @@
         <v>69</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>4</v>
@@ -8755,18 +8806,18 @@
         <v>70</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>4</v>
@@ -8778,21 +8829,21 @@
         <v>71</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>5</v>
@@ -8804,18 +8855,18 @@
         <v>72</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -8827,21 +8878,21 @@
         <v>73</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -8853,18 +8904,18 @@
         <v>74</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>6</v>
@@ -8876,21 +8927,21 @@
         <v>75</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>7</v>
@@ -8902,18 +8953,18 @@
         <v>76</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>7</v>
@@ -8925,21 +8976,21 @@
         <v>77</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>4</v>
@@ -8951,21 +9002,21 @@
         <v>70</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -8977,21 +9028,21 @@
         <v>71</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>5</v>
@@ -9003,18 +9054,18 @@
         <v>72</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -9026,21 +9077,21 @@
         <v>73</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
@@ -9052,18 +9103,18 @@
         <v>74</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>6</v>
@@ -9075,21 +9126,21 @@
         <v>75</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>7</v>
@@ -9101,18 +9152,18 @@
         <v>76</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>7</v>
@@ -9124,21 +9175,21 @@
         <v>77</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>4</v>
@@ -9150,21 +9201,21 @@
         <v>78</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -9176,24 +9227,24 @@
         <v>79</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>5</v>
@@ -9205,21 +9256,21 @@
         <v>80</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>5</v>
@@ -9231,24 +9282,24 @@
         <v>81</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>6</v>
@@ -9260,21 +9311,21 @@
         <v>82</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -9286,24 +9337,24 @@
         <v>83</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -9315,21 +9366,21 @@
         <v>84</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>7</v>
@@ -9341,24 +9392,24 @@
         <v>85</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>4</v>
@@ -9370,18 +9421,18 @@
         <v>78</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>4</v>
@@ -9393,21 +9444,21 @@
         <v>79</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>5</v>
@@ -9419,18 +9470,18 @@
         <v>80</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>5</v>
@@ -9442,21 +9493,21 @@
         <v>81</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>6</v>
@@ -9468,18 +9519,18 @@
         <v>82</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6</v>
@@ -9491,21 +9542,21 @@
         <v>83</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>7</v>
@@ -9517,18 +9568,18 @@
         <v>84</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>7</v>
@@ -9540,21 +9591,21 @@
         <v>85</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>4</v>
@@ -9566,18 +9617,18 @@
         <v>86</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>4</v>
@@ -9589,21 +9640,21 @@
         <v>87</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>5</v>
@@ -9615,18 +9666,18 @@
         <v>88</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>5</v>
@@ -9638,21 +9689,21 @@
         <v>89</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>6</v>
@@ -9664,18 +9715,18 @@
         <v>90</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>6</v>
@@ -9687,21 +9738,21 @@
         <v>91</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>7</v>
@@ -9713,18 +9764,18 @@
         <v>92</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>7</v>
@@ -9736,21 +9787,21 @@
         <v>93</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>4</v>
@@ -9762,18 +9813,18 @@
         <v>86</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>4</v>
@@ -9785,21 +9836,21 @@
         <v>87</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>5</v>
@@ -9811,18 +9862,18 @@
         <v>88</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>5</v>
@@ -9834,21 +9885,21 @@
         <v>89</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>6</v>
@@ -9860,18 +9911,18 @@
         <v>90</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>6</v>
@@ -9883,21 +9934,21 @@
         <v>91</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>7</v>
@@ -9909,18 +9960,18 @@
         <v>92</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="107" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B173" s="107" t="n">
         <v>7</v>
@@ -9933,17 +9984,17 @@
         <v>93</v>
       </c>
       <c r="F173" s="107" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G173" s="107" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H173" s="107"/>
       <c r="I173" s="107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J173" s="107" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9960,13 +10011,13 @@
         <v>94</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9983,16 +10034,16 @@
         <v>95</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10009,13 +10060,13 @@
         <v>96</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10032,16 +10083,16 @@
         <v>97</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10058,13 +10109,13 @@
         <v>98</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10081,16 +10132,16 @@
         <v>99</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10107,13 +10158,13 @@
         <v>100</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10130,16 +10181,16 @@
         <v>101</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10156,13 +10207,13 @@
         <v>102</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10179,19 +10230,19 @@
         <v>103</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10208,13 +10259,13 @@
         <v>104</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10231,19 +10282,19 @@
         <v>105</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10260,13 +10311,13 @@
         <v>106</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10283,19 +10334,19 @@
         <v>107</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10312,13 +10363,13 @@
         <v>108</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10335,19 +10386,19 @@
         <v>109</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10364,13 +10415,13 @@
         <v>110</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10387,24 +10438,24 @@
         <v>111</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>13</v>
@@ -10416,22 +10467,22 @@
         <v>113</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10448,13 +10499,13 @@
         <v>114</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10471,24 +10522,24 @@
         <v>115</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>20</v>
@@ -10500,18 +10551,18 @@
         <v>116</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>20</v>
@@ -10523,19 +10574,19 @@
         <v>117</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10552,13 +10603,13 @@
         <v>118</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10575,16 +10626,16 @@
         <v>119</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10601,16 +10652,16 @@
         <v>120</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10627,19 +10678,19 @@
         <v>121</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10656,13 +10707,13 @@
         <v>122</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10679,16 +10730,16 @@
         <v>123</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10705,16 +10756,16 @@
         <v>124</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10731,19 +10782,19 @@
         <v>125</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10760,13 +10811,13 @@
         <v>126</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10783,16 +10834,16 @@
         <v>127</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10809,16 +10860,16 @@
         <v>128</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10835,19 +10886,19 @@
         <v>129</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10864,13 +10915,13 @@
         <v>130</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10887,16 +10938,16 @@
         <v>131</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10913,13 +10964,13 @@
         <v>134</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10936,16 +10987,16 @@
         <v>135</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10962,13 +11013,13 @@
         <v>132</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10985,16 +11036,16 @@
         <v>133</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11011,13 +11062,13 @@
         <v>136</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11034,16 +11085,16 @@
         <v>137</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11060,13 +11111,13 @@
         <v>142</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11083,13 +11134,13 @@
         <v>143</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11106,16 +11157,16 @@
         <v>138</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11132,19 +11183,19 @@
         <v>139</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11161,16 +11212,16 @@
         <v>144</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11187,16 +11238,16 @@
         <v>145</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11213,19 +11264,19 @@
         <v>147</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11242,16 +11293,16 @@
         <v>148</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11268,16 +11319,16 @@
         <v>149</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11294,16 +11345,16 @@
         <v>149</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11320,10 +11371,10 @@
         <v>146</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11340,10 +11391,10 @@
         <v>150</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11360,19 +11411,19 @@
         <v>151</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L229" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11389,19 +11440,19 @@
         <v>152</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L230" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11418,16 +11469,16 @@
         <v>153</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11444,21 +11495,21 @@
         <v>154</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>24</v>
@@ -11470,21 +11521,21 @@
         <v>155</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>25</v>
@@ -11496,21 +11547,21 @@
         <v>156</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>25</v>
@@ -11522,21 +11573,21 @@
         <v>157</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>25</v>
@@ -11548,16 +11599,16 @@
         <v>158</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11568,13 +11619,13 @@
         <v>159</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11591,16 +11642,16 @@
         <v>165</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11617,19 +11668,19 @@
         <v>166</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11646,16 +11697,16 @@
         <v>167</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11672,19 +11723,19 @@
         <v>168</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11701,16 +11752,16 @@
         <v>169</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11727,19 +11778,19 @@
         <v>170</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11756,16 +11807,16 @@
         <v>171</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11782,19 +11833,19 @@
         <v>172</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11805,10 +11856,10 @@
         <v>145</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11819,10 +11870,10 @@
         <v>116</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11839,16 +11890,16 @@
         <v>161</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11862,16 +11913,16 @@
         <v>4</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11885,16 +11936,16 @@
         <v>4</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11911,16 +11962,16 @@
         <v>160</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11937,16 +11988,16 @@
         <v>162</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11963,16 +12014,16 @@
         <v>163</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11989,16 +12040,16 @@
         <v>164</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12015,19 +12066,19 @@
         <v>182</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L255" s="0" t="s">
-        <v>281</v>
+        <v>114</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12044,16 +12095,16 @@
         <v>183</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12070,13 +12121,13 @@
         <v>184</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12093,13 +12144,13 @@
         <v>185</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12116,16 +12167,16 @@
         <v>186</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12136,31 +12187,31 @@
         <v>191</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M260" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N260" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O260" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P260" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q260" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R260" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12177,13 +12228,13 @@
         <v>187</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I261" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M261" s="0" t="n">
         <v>1</v>
@@ -12218,13 +12269,13 @@
         <v>188</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I262" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M262" s="0" t="n">
         <v>1</v>
@@ -12259,13 +12310,13 @@
         <v>190</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M263" s="0" t="n">
         <v>5</v>
@@ -12300,13 +12351,13 @@
         <v>194</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M264" s="0" t="n">
         <v>5</v>
@@ -12329,7 +12380,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>21</v>
@@ -12341,13 +12392,13 @@
         <v>195</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M265" s="0" t="n">
         <v>1</v>
@@ -12370,7 +12421,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>21</v>
@@ -12382,13 +12433,13 @@
         <v>196</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M266" s="0" t="n">
         <v>1</v>
@@ -12411,7 +12462,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>26</v>
@@ -12423,18 +12474,18 @@
         <v>197</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>26</v>
@@ -12446,13 +12497,13 @@
         <v>198</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12485,24 +12536,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -12537,21 +12588,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -12563,7 +12614,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
@@ -12575,7 +12626,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -12621,7 +12672,7 @@
         <v>0.0100401606425703</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>281</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="308">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -369,511 +369,514 @@
     <t xml:space="preserve">2021/02/18</t>
   </si>
   <si>
+    <t xml:space="preserve">2021/02/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp [C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time/rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3K/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stiring time [h]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEATING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test, heating rate max with scratch in middle, discarded </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frist sample, not entirely homogeneous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from room temperature (RT) orientation when blading ((0,0)(1,0), horizontal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from RT, ((0,0)(1,1), diagonal) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from RT, ((0,0)(0,1), vertical) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 40C ((0,0)(0,1), vertical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZnO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C, didn’t stir and hole in parafilm for 10-20 hours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1/1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C// second layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2/1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1/1-3/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2/1-3/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C// second layer // TIXO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-4/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 80C // TIXO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 80-100-cool 2h-100-150…//TESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 80C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-1/2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-1/3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/10/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-1/4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-1/5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-1/6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-1/7-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double tape </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runter gefallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop aged sol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/12/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 days before calcination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doble conc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spin coating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x/10x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long sample 24 tage pause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT2 twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F,HG,DOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/01/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F,HG,DOC,old(milky)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3F,HG,DOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5F,HG,noDOC, noPYRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5F,HG,noDOC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F*,HG,DOC(milky)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4F,SC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F,vDOC=10</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temp [C]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time/rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2K/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1K/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3K/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seed layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stiring time [h]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">layers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEATING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test, heating rate max with scratch in middle, discarded </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frist sample, not entirely homogeneous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from room temperature (RT) orientation when blading ((0,0)(1,0), horizontal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from RT, ((0,0)(1,1), diagonal) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from RT, ((0,0)(0,1), vertical) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 40C ((0,0)(0,1), vertical)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZnO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C, didn’t stir and hole in parafilm for 10-20 hours </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1/1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C// second layer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2/1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1/1-3/1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2/1-3/1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3/1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2/1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C// second layer // TIXO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-4/1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from 80C // TIXO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 80-100-cool 2h-100-150…//TESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 80C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-1/2-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-1/3-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/10/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-1/4-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.11.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-1/5-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-1/6-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-1/7-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double tape </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.11.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runter gefallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/11/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drop aged sol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.12.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/12/02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 days before calcination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doble conc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spin coating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.01.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5x/10x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long sample 24 tage pause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT2 twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4F,HG,DOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021/01/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4F,HG,DOC,old(milky)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3F,HG,DOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5F,HG,noDOC, noPYRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5F,HG,noDOC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4F*,HG,DOC(milky)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4F,SC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2F,vDOC=10</t>
   </si>
   <si>
     <t xml:space="preserve">3F,VDOC=1</t>
@@ -2449,7 +2452,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4564,16 +4567,34 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="96" t="str">
+      <c r="A58" s="96" t="n">
         <f aca="false">IF(ISBLANK(H58),"", H58/(G58+L58)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="B58" s="0" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C58" s="103" t="n">
+        <f aca="false">IF(ISBLANK(H58),"",H58/G58*(G$13/H$13))</f>
+        <v>4.125</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="103" t="str">
-        <f aca="false">IF(ISBLANK(H58),"",H58/G58*(G$13/H$13))</f>
-        <v/>
+      <c r="G58" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12078,7 +12099,7 @@
         <v>282</v>
       </c>
       <c r="L255" s="0" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12104,7 +12125,7 @@
         <v>127</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12127,7 +12148,7 @@
         <v>127</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12150,7 +12171,7 @@
         <v>127</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12176,7 +12197,7 @@
         <v>127</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12193,25 +12214,25 @@
         <v>127</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M260" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N260" s="0" t="s">
         <v>139</v>
       </c>
       <c r="O260" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P260" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q260" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R260" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12275,7 +12296,7 @@
         <v>281</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M262" s="0" t="n">
         <v>1</v>
@@ -12316,7 +12337,7 @@
         <v>243</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M263" s="0" t="n">
         <v>5</v>
@@ -12357,7 +12378,7 @@
         <v>281</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M264" s="0" t="n">
         <v>5</v>
@@ -12380,7 +12401,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>21</v>
@@ -12398,7 +12419,7 @@
         <v>255</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M265" s="0" t="n">
         <v>1</v>
@@ -12421,7 +12442,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>21</v>
@@ -12439,7 +12460,7 @@
         <v>257</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M266" s="0" t="n">
         <v>1</v>
@@ -12462,7 +12483,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>26</v>
@@ -12480,12 +12501,12 @@
         <v>255</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>26</v>
@@ -12503,7 +12524,7 @@
         <v>257</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12536,24 +12557,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -12588,21 +12609,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="103" t="s">
         <v>303</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -12614,7 +12635,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
@@ -12626,7 +12647,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -12672,7 +12693,7 @@
         <v>0.0100401606425703</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="310">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t xml:space="preserve">2021/02/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/02/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/02/26</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -2452,7 +2458,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4598,23 +4604,65 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="96" t="str">
+      <c r="A59" s="96" t="n">
         <f aca="false">IF(ISBLANK(H59),"", H59/(G59+L59)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C59" s="103" t="str">
+        <v>1</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C59" s="103" t="n">
         <f aca="false">IF(ISBLANK(H59),"",H59/G59*(G$13/H$13))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="96" t="str">
+      <c r="A60" s="96" t="n">
         <f aca="false">IF(ISBLANK(H60),"", H60/(G60+L60)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C60" s="103" t="str">
+        <v>1.72463768115942</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C60" s="103" t="n">
         <f aca="false">IF(ISBLANK(H60),"",H60/G60*(G$13/H$13))</f>
-        <v/>
+        <v>2.02040816326531</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4849,406 +4897,406 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AA1" s="101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>150</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>160</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>170</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>180</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>190</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>200</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>250</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>300</v>
       </c>
       <c r="W2" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>350</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>400</v>
       </c>
       <c r="AA2" s="101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>160</v>
       </c>
       <c r="I3" s="101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>170</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>180</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>190</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>200</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>250</v>
       </c>
       <c r="S3" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>300</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>350</v>
       </c>
       <c r="W3" s="101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>400</v>
       </c>
       <c r="Y3" s="101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>500</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5303,31 +5351,31 @@
         <v>51</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,31 +5389,31 @@
         <v>0</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -5374,13 +5422,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5390,13 +5438,13 @@
         <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5410,13 +5458,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5426,13 +5474,13 @@
         <v>60</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,13 +5494,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5462,13 +5510,13 @@
         <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5482,13 +5530,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5498,13 +5546,13 @@
         <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,13 +5566,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5534,18 +5582,18 @@
         <v>60</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -5554,33 +5602,33 @@
         <v>2</v>
       </c>
       <c r="D8" s="106" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -5589,33 +5637,33 @@
         <v>2</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -5624,13 +5672,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="106" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5640,18 +5688,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -5660,13 +5708,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="106" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5676,18 +5724,18 @@
         <v>20</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -5696,33 +5744,33 @@
         <v>2</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -5731,33 +5779,33 @@
         <v>2</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -5766,13 +5814,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="106" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5782,18 +5830,18 @@
         <v>60</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -5802,13 +5850,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="106" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5818,13 +5866,13 @@
         <v>60</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,13 +5886,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5854,13 +5902,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5874,13 +5922,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="106" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5890,13 +5938,13 @@
         <v>20</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5910,13 +5958,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="106" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5926,13 +5974,13 @@
         <v>20</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,13 +5994,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="106" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5962,13 +6010,13 @@
         <v>20</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5982,13 +6030,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5998,13 +6046,13 @@
         <v>20</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,13 +6066,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="106" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6034,13 +6082,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6054,13 +6102,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="106" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6070,13 +6118,13 @@
         <v>20</v>
       </c>
       <c r="I22" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6090,13 +6138,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="106" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6106,13 +6154,13 @@
         <v>20</v>
       </c>
       <c r="I23" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6126,13 +6174,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="106" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6142,13 +6190,13 @@
         <v>20</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6162,33 +6210,33 @@
         <v>4</v>
       </c>
       <c r="D25" s="106" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -6197,33 +6245,33 @@
         <v>4</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F26" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -6232,30 +6280,30 @@
         <v>4</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -6264,31 +6312,31 @@
         <v>4</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -6297,30 +6345,30 @@
         <v>4</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -6329,31 +6377,31 @@
         <v>1</v>
       </c>
       <c r="D30" s="106" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -6362,31 +6410,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="106" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -6395,31 +6443,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="106" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3</v>
@@ -6428,31 +6476,31 @@
         <v>1</v>
       </c>
       <c r="D33" s="106" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -6461,28 +6509,28 @@
         <v>4</v>
       </c>
       <c r="D34" s="106" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -6491,27 +6539,27 @@
         <v>4</v>
       </c>
       <c r="D35" s="106" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -6520,28 +6568,28 @@
         <v>1</v>
       </c>
       <c r="D36" s="106" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -6550,27 +6598,27 @@
         <v>1</v>
       </c>
       <c r="D37" s="106" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3</v>
@@ -6579,28 +6627,28 @@
         <v>1</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>3</v>
@@ -6609,27 +6657,27 @@
         <v>1</v>
       </c>
       <c r="D39" s="106" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -6638,31 +6686,31 @@
         <v>4</v>
       </c>
       <c r="D40" s="106" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -6671,33 +6719,33 @@
         <v>4</v>
       </c>
       <c r="D41" s="106" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="L41" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -6706,31 +6754,31 @@
         <v>1</v>
       </c>
       <c r="D42" s="106" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
@@ -6739,33 +6787,33 @@
         <v>1</v>
       </c>
       <c r="D43" s="106" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F43" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="L43" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3</v>
@@ -6774,31 +6822,31 @@
         <v>1</v>
       </c>
       <c r="D44" s="106" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3</v>
@@ -6807,33 +6855,33 @@
         <v>1</v>
       </c>
       <c r="D45" s="106" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F45" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="L45" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -6842,28 +6890,28 @@
         <v>4</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -6872,27 +6920,27 @@
         <v>4</v>
       </c>
       <c r="D47" s="106" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2</v>
@@ -6904,18 +6952,18 @@
         <v>24</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2</v>
@@ -6927,21 +6975,21 @@
         <v>25</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>3</v>
@@ -6953,18 +7001,18 @@
         <v>26</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>3</v>
@@ -6976,21 +7024,21 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -7002,18 +7050,18 @@
         <v>22</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
@@ -7025,21 +7073,21 @@
         <v>23</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
@@ -7051,18 +7099,18 @@
         <v>24</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -7074,21 +7122,21 @@
         <v>25</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -7100,18 +7148,18 @@
         <v>26</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -7123,21 +7171,21 @@
         <v>27</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -7149,18 +7197,18 @@
         <v>38</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -7172,21 +7220,21 @@
         <v>39</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -7198,18 +7246,18 @@
         <v>40</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
@@ -7221,21 +7269,21 @@
         <v>41</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -7247,18 +7295,18 @@
         <v>28</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
@@ -7270,21 +7318,21 @@
         <v>29</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1</v>
@@ -7296,18 +7344,18 @@
         <v>42</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1</v>
@@ -7319,21 +7367,21 @@
         <v>43</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2</v>
@@ -7345,18 +7393,18 @@
         <v>34</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -7368,21 +7416,21 @@
         <v>35</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -7394,18 +7442,18 @@
         <v>44</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -7417,16 +7465,16 @@
         <v>45</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7443,13 +7491,13 @@
         <v>28</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7466,19 +7514,19 @@
         <v>29</v>
       </c>
       <c r="F71" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L71" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,13 +7543,13 @@
         <v>42</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7518,16 +7566,16 @@
         <v>43</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7544,13 +7592,13 @@
         <v>34</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7567,16 +7615,16 @@
         <v>35</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7593,13 +7641,13 @@
         <v>44</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7616,21 +7664,21 @@
         <v>45</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -7642,18 +7690,18 @@
         <v>46</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>4</v>
@@ -7665,21 +7713,21 @@
         <v>47</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>5</v>
@@ -7691,18 +7739,18 @@
         <v>48</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -7714,21 +7762,21 @@
         <v>49</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -7740,18 +7788,18 @@
         <v>50</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -7763,21 +7811,21 @@
         <v>51</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -7789,18 +7837,18 @@
         <v>52</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>7</v>
@@ -7812,21 +7860,21 @@
         <v>53</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>4</v>
@@ -7838,21 +7886,21 @@
         <v>46</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -7864,21 +7912,21 @@
         <v>47</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -7890,18 +7938,18 @@
         <v>48</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>5</v>
@@ -7913,21 +7961,21 @@
         <v>49</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>6</v>
@@ -7939,18 +7987,18 @@
         <v>50</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>6</v>
@@ -7962,21 +8010,21 @@
         <v>51</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>7</v>
@@ -7988,18 +8036,18 @@
         <v>52</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>7</v>
@@ -8011,21 +8059,21 @@
         <v>53</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>4</v>
@@ -8037,18 +8085,18 @@
         <v>54</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
@@ -8060,21 +8108,21 @@
         <v>55</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -8086,18 +8134,18 @@
         <v>56</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>5</v>
@@ -8109,21 +8157,21 @@
         <v>57</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>6</v>
@@ -8135,18 +8183,18 @@
         <v>58</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>6</v>
@@ -8158,21 +8206,21 @@
         <v>59</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>7</v>
@@ -8184,18 +8232,18 @@
         <v>60</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>7</v>
@@ -8207,21 +8255,21 @@
         <v>61</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>4</v>
@@ -8233,21 +8281,21 @@
         <v>54</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>4</v>
@@ -8259,21 +8307,21 @@
         <v>55</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>5</v>
@@ -8285,18 +8333,18 @@
         <v>56</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>5</v>
@@ -8308,21 +8356,21 @@
         <v>57</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>6</v>
@@ -8334,18 +8382,18 @@
         <v>58</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
@@ -8357,21 +8405,21 @@
         <v>59</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>7</v>
@@ -8383,18 +8431,18 @@
         <v>60</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>7</v>
@@ -8406,21 +8454,21 @@
         <v>61</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>4</v>
@@ -8432,18 +8480,18 @@
         <v>62</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -8455,21 +8503,21 @@
         <v>63</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -8481,18 +8529,18 @@
         <v>64</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>5</v>
@@ -8504,21 +8552,21 @@
         <v>65</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>6</v>
@@ -8530,18 +8578,18 @@
         <v>66</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
@@ -8553,21 +8601,21 @@
         <v>67</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>7</v>
@@ -8579,18 +8627,18 @@
         <v>68</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>7</v>
@@ -8602,21 +8650,21 @@
         <v>69</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>4</v>
@@ -8628,21 +8676,21 @@
         <v>62</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>4</v>
@@ -8654,21 +8702,21 @@
         <v>63</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>5</v>
@@ -8680,18 +8728,18 @@
         <v>64</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>5</v>
@@ -8703,21 +8751,21 @@
         <v>65</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>6</v>
@@ -8729,18 +8777,18 @@
         <v>66</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
@@ -8752,21 +8800,21 @@
         <v>67</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>7</v>
@@ -8778,18 +8826,18 @@
         <v>68</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -8801,21 +8849,21 @@
         <v>69</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>4</v>
@@ -8827,18 +8875,18 @@
         <v>70</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>4</v>
@@ -8850,21 +8898,21 @@
         <v>71</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>5</v>
@@ -8876,18 +8924,18 @@
         <v>72</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -8899,21 +8947,21 @@
         <v>73</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -8925,18 +8973,18 @@
         <v>74</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>6</v>
@@ -8948,21 +8996,21 @@
         <v>75</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>7</v>
@@ -8974,18 +9022,18 @@
         <v>76</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>7</v>
@@ -8997,21 +9045,21 @@
         <v>77</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>4</v>
@@ -9023,21 +9071,21 @@
         <v>70</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -9049,21 +9097,21 @@
         <v>71</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>5</v>
@@ -9075,18 +9123,18 @@
         <v>72</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -9098,21 +9146,21 @@
         <v>73</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
@@ -9124,18 +9172,18 @@
         <v>74</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>6</v>
@@ -9147,21 +9195,21 @@
         <v>75</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>7</v>
@@ -9173,18 +9221,18 @@
         <v>76</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>7</v>
@@ -9196,21 +9244,21 @@
         <v>77</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>4</v>
@@ -9222,21 +9270,21 @@
         <v>78</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -9248,24 +9296,24 @@
         <v>79</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>5</v>
@@ -9277,21 +9325,21 @@
         <v>80</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>5</v>
@@ -9303,24 +9351,24 @@
         <v>81</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>6</v>
@@ -9332,21 +9380,21 @@
         <v>82</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -9358,24 +9406,24 @@
         <v>83</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -9387,21 +9435,21 @@
         <v>84</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>7</v>
@@ -9413,24 +9461,24 @@
         <v>85</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>4</v>
@@ -9442,18 +9490,18 @@
         <v>78</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>4</v>
@@ -9465,21 +9513,21 @@
         <v>79</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>5</v>
@@ -9491,18 +9539,18 @@
         <v>80</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>5</v>
@@ -9514,21 +9562,21 @@
         <v>81</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>6</v>
@@ -9540,18 +9588,18 @@
         <v>82</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6</v>
@@ -9563,21 +9611,21 @@
         <v>83</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>7</v>
@@ -9589,18 +9637,18 @@
         <v>84</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>7</v>
@@ -9612,21 +9660,21 @@
         <v>85</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>4</v>
@@ -9638,18 +9686,18 @@
         <v>86</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>4</v>
@@ -9661,21 +9709,21 @@
         <v>87</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>5</v>
@@ -9687,18 +9735,18 @@
         <v>88</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>5</v>
@@ -9710,21 +9758,21 @@
         <v>89</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>6</v>
@@ -9736,18 +9784,18 @@
         <v>90</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>6</v>
@@ -9759,21 +9807,21 @@
         <v>91</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>7</v>
@@ -9785,18 +9833,18 @@
         <v>92</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>7</v>
@@ -9808,21 +9856,21 @@
         <v>93</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>4</v>
@@ -9834,18 +9882,18 @@
         <v>86</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>4</v>
@@ -9857,21 +9905,21 @@
         <v>87</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>5</v>
@@ -9883,18 +9931,18 @@
         <v>88</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>5</v>
@@ -9906,21 +9954,21 @@
         <v>89</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>6</v>
@@ -9932,18 +9980,18 @@
         <v>90</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>6</v>
@@ -9955,21 +10003,21 @@
         <v>91</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>7</v>
@@ -9981,18 +10029,18 @@
         <v>92</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="107" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B173" s="107" t="n">
         <v>7</v>
@@ -10005,17 +10053,17 @@
         <v>93</v>
       </c>
       <c r="F173" s="107" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G173" s="107" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H173" s="107"/>
       <c r="I173" s="107" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J173" s="107" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10032,13 +10080,13 @@
         <v>94</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10055,16 +10103,16 @@
         <v>95</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10081,13 +10129,13 @@
         <v>96</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10104,16 +10152,16 @@
         <v>97</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10130,13 +10178,13 @@
         <v>98</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10153,16 +10201,16 @@
         <v>99</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10179,13 +10227,13 @@
         <v>100</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10202,16 +10250,16 @@
         <v>101</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10228,13 +10276,13 @@
         <v>102</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10251,19 +10299,19 @@
         <v>103</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10280,13 +10328,13 @@
         <v>104</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10303,19 +10351,19 @@
         <v>105</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10332,13 +10380,13 @@
         <v>106</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10355,19 +10403,19 @@
         <v>107</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10384,13 +10432,13 @@
         <v>108</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10407,19 +10455,19 @@
         <v>109</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10436,13 +10484,13 @@
         <v>110</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10459,24 +10507,24 @@
         <v>111</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>13</v>
@@ -10488,22 +10536,22 @@
         <v>113</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10520,13 +10568,13 @@
         <v>114</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10543,24 +10591,24 @@
         <v>115</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>20</v>
@@ -10572,18 +10620,18 @@
         <v>116</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>20</v>
@@ -10595,19 +10643,19 @@
         <v>117</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10624,13 +10672,13 @@
         <v>118</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10647,16 +10695,16 @@
         <v>119</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10673,16 +10721,16 @@
         <v>120</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10699,19 +10747,19 @@
         <v>121</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10728,13 +10776,13 @@
         <v>122</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10751,16 +10799,16 @@
         <v>123</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10777,16 +10825,16 @@
         <v>124</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10803,19 +10851,19 @@
         <v>125</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10832,13 +10880,13 @@
         <v>126</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10855,16 +10903,16 @@
         <v>127</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10881,16 +10929,16 @@
         <v>128</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10907,19 +10955,19 @@
         <v>129</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10936,13 +10984,13 @@
         <v>130</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10959,16 +11007,16 @@
         <v>131</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10985,13 +11033,13 @@
         <v>134</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11008,16 +11056,16 @@
         <v>135</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11034,13 +11082,13 @@
         <v>132</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11057,16 +11105,16 @@
         <v>133</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11083,13 +11131,13 @@
         <v>136</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11106,16 +11154,16 @@
         <v>137</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11132,13 +11180,13 @@
         <v>142</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11155,13 +11203,13 @@
         <v>143</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11178,16 +11226,16 @@
         <v>138</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11204,19 +11252,19 @@
         <v>139</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11233,16 +11281,16 @@
         <v>144</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11259,16 +11307,16 @@
         <v>145</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11285,19 +11333,19 @@
         <v>147</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11314,16 +11362,16 @@
         <v>148</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11340,16 +11388,16 @@
         <v>149</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11366,16 +11414,16 @@
         <v>149</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11392,10 +11440,10 @@
         <v>146</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11412,10 +11460,10 @@
         <v>150</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11432,19 +11480,19 @@
         <v>151</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L229" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11461,19 +11509,19 @@
         <v>152</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L230" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11490,16 +11538,16 @@
         <v>153</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11516,21 +11564,21 @@
         <v>154</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>24</v>
@@ -11542,21 +11590,21 @@
         <v>155</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>25</v>
@@ -11568,21 +11616,21 @@
         <v>156</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>25</v>
@@ -11594,21 +11642,21 @@
         <v>157</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>25</v>
@@ -11620,16 +11668,16 @@
         <v>158</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11640,13 +11688,13 @@
         <v>159</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11663,16 +11711,16 @@
         <v>165</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11689,19 +11737,19 @@
         <v>166</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11718,16 +11766,16 @@
         <v>167</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11744,19 +11792,19 @@
         <v>168</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11773,16 +11821,16 @@
         <v>169</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11799,19 +11847,19 @@
         <v>170</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11828,16 +11876,16 @@
         <v>171</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11854,19 +11902,19 @@
         <v>172</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11877,10 +11925,10 @@
         <v>145</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11891,10 +11939,10 @@
         <v>116</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11911,16 +11959,16 @@
         <v>161</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11934,16 +11982,16 @@
         <v>4</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11957,16 +12005,16 @@
         <v>4</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11983,16 +12031,16 @@
         <v>160</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12009,16 +12057,16 @@
         <v>162</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12035,16 +12083,16 @@
         <v>163</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12061,16 +12109,16 @@
         <v>164</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12087,19 +12135,19 @@
         <v>182</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L255" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12116,16 +12164,16 @@
         <v>183</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12142,13 +12190,13 @@
         <v>184</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12165,13 +12213,13 @@
         <v>185</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12188,16 +12236,16 @@
         <v>186</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12208,31 +12256,31 @@
         <v>191</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M260" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N260" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O260" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P260" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q260" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R260" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12249,13 +12297,13 @@
         <v>187</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I261" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M261" s="0" t="n">
         <v>1</v>
@@ -12290,13 +12338,13 @@
         <v>188</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I262" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M262" s="0" t="n">
         <v>1</v>
@@ -12331,13 +12379,13 @@
         <v>190</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M263" s="0" t="n">
         <v>5</v>
@@ -12372,13 +12420,13 @@
         <v>194</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M264" s="0" t="n">
         <v>5</v>
@@ -12401,7 +12449,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>21</v>
@@ -12413,13 +12461,13 @@
         <v>195</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M265" s="0" t="n">
         <v>1</v>
@@ -12442,7 +12490,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>21</v>
@@ -12454,13 +12502,13 @@
         <v>196</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M266" s="0" t="n">
         <v>1</v>
@@ -12483,7 +12531,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>26</v>
@@ -12495,18 +12543,18 @@
         <v>197</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>26</v>
@@ -12518,13 +12566,13 @@
         <v>198</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12557,24 +12605,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -12609,21 +12657,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -12635,7 +12683,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
@@ -12647,7 +12695,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -12693,7 +12741,7 @@
         <v>0.0100401606425703</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="313">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -376,6 +376,15 @@
   </si>
   <si>
     <t xml:space="preserve">2021/02/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/03/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPO+AcOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPO</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -2456,9 +2465,9 @@
   <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+      <selection pane="bottomLeft" activeCell="K62" activeCellId="0" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4666,33 +4675,105 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="96" t="str">
+      <c r="A61" s="96" t="n">
         <f aca="false">IF(ISBLANK(H61),"", H61/(G61+L61)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C61" s="103" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C61" s="103" t="n">
         <f aca="false">IF(ISBLANK(H61),"",H61/G61*(G$13/H$13))</f>
-        <v/>
+        <v>4.125</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="96" t="str">
+      <c r="A62" s="96" t="n">
         <f aca="false">IF(ISBLANK(H62),"", H62/(G62+L62)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C62" s="103" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C62" s="103" t="n">
         <f aca="false">IF(ISBLANK(H62),"",H62/G62*(G$13/H$13))</f>
-        <v/>
+        <v>4.125</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="96" t="str">
+      <c r="A63" s="96" t="n">
         <f aca="false">IF(ISBLANK(H63),"", H63/(G63+L63)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C63" s="103" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C63" s="103" t="n">
         <f aca="false">IF(ISBLANK(H63),"",H63/G63*(G$13/H$13))</f>
-        <v/>
+        <v>4.125</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,406 +4978,406 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="W1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Y1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AA1" s="101" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>150</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>160</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>170</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>180</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>190</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>200</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>250</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>300</v>
       </c>
       <c r="W2" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>350</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>400</v>
       </c>
       <c r="AA2" s="101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>160</v>
       </c>
       <c r="I3" s="101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>170</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>180</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>190</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>200</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>250</v>
       </c>
       <c r="S3" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>300</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>350</v>
       </c>
       <c r="W3" s="101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>400</v>
       </c>
       <c r="Y3" s="101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>500</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5351,31 +5432,31 @@
         <v>51</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,31 +5470,31 @@
         <v>0</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -5422,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5438,13 +5519,13 @@
         <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,13 +5539,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5474,13 +5555,13 @@
         <v>60</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,13 +5575,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5510,13 +5591,13 @@
         <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5530,13 +5611,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5546,13 +5627,13 @@
         <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5566,13 +5647,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5582,18 +5663,18 @@
         <v>60</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -5602,33 +5683,33 @@
         <v>2</v>
       </c>
       <c r="D8" s="106" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -5637,33 +5718,33 @@
         <v>2</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -5672,13 +5753,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="106" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5688,18 +5769,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -5708,13 +5789,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="106" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5724,18 +5805,18 @@
         <v>20</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -5744,33 +5825,33 @@
         <v>2</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -5779,33 +5860,33 @@
         <v>2</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -5814,13 +5895,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="106" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5830,18 +5911,18 @@
         <v>60</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -5850,13 +5931,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="106" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5866,13 +5947,13 @@
         <v>60</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,13 +5967,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="106" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5902,13 +5983,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5922,13 +6003,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="106" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5938,13 +6019,13 @@
         <v>20</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,13 +6039,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="106" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5974,13 +6055,13 @@
         <v>20</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5994,13 +6075,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="106" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6010,13 +6091,13 @@
         <v>20</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,13 +6111,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="106" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6046,13 +6127,13 @@
         <v>20</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6066,13 +6147,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="106" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6082,13 +6163,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6102,13 +6183,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="106" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6118,13 +6199,13 @@
         <v>20</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,13 +6219,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="106" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6154,13 +6235,13 @@
         <v>20</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6174,13 +6255,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="106" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6190,13 +6271,13 @@
         <v>20</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6210,33 +6291,33 @@
         <v>4</v>
       </c>
       <c r="D25" s="106" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -6245,33 +6326,33 @@
         <v>4</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -6280,30 +6361,30 @@
         <v>4</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -6312,31 +6393,31 @@
         <v>4</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -6345,30 +6426,30 @@
         <v>4</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -6377,31 +6458,31 @@
         <v>1</v>
       </c>
       <c r="D30" s="106" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -6410,31 +6491,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="106" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -6443,31 +6524,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="106" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3</v>
@@ -6476,31 +6557,31 @@
         <v>1</v>
       </c>
       <c r="D33" s="106" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -6509,28 +6590,28 @@
         <v>4</v>
       </c>
       <c r="D34" s="106" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -6539,27 +6620,27 @@
         <v>4</v>
       </c>
       <c r="D35" s="106" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -6568,28 +6649,28 @@
         <v>1</v>
       </c>
       <c r="D36" s="106" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -6598,27 +6679,27 @@
         <v>1</v>
       </c>
       <c r="D37" s="106" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3</v>
@@ -6627,28 +6708,28 @@
         <v>1</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>3</v>
@@ -6657,27 +6738,27 @@
         <v>1</v>
       </c>
       <c r="D39" s="106" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -6686,31 +6767,31 @@
         <v>4</v>
       </c>
       <c r="D40" s="106" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -6719,33 +6800,33 @@
         <v>4</v>
       </c>
       <c r="D41" s="106" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -6754,31 +6835,31 @@
         <v>1</v>
       </c>
       <c r="D42" s="106" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
@@ -6787,33 +6868,33 @@
         <v>1</v>
       </c>
       <c r="D43" s="106" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3</v>
@@ -6822,31 +6903,31 @@
         <v>1</v>
       </c>
       <c r="D44" s="106" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3</v>
@@ -6855,33 +6936,33 @@
         <v>1</v>
       </c>
       <c r="D45" s="106" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -6890,28 +6971,28 @@
         <v>4</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -6920,27 +7001,27 @@
         <v>4</v>
       </c>
       <c r="D47" s="106" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2</v>
@@ -6952,18 +7033,18 @@
         <v>24</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2</v>
@@ -6975,21 +7056,21 @@
         <v>25</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>3</v>
@@ -7001,18 +7082,18 @@
         <v>26</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>3</v>
@@ -7024,21 +7105,21 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -7050,18 +7131,18 @@
         <v>22</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
@@ -7073,21 +7154,21 @@
         <v>23</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
@@ -7099,18 +7180,18 @@
         <v>24</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -7122,21 +7203,21 @@
         <v>25</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -7148,18 +7229,18 @@
         <v>26</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -7171,21 +7252,21 @@
         <v>27</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -7197,18 +7278,18 @@
         <v>38</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -7220,21 +7301,21 @@
         <v>39</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -7246,18 +7327,18 @@
         <v>40</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
@@ -7269,21 +7350,21 @@
         <v>41</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -7295,18 +7376,18 @@
         <v>28</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
@@ -7318,21 +7399,21 @@
         <v>29</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1</v>
@@ -7344,18 +7425,18 @@
         <v>42</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1</v>
@@ -7367,21 +7448,21 @@
         <v>43</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2</v>
@@ -7393,18 +7474,18 @@
         <v>34</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -7416,21 +7497,21 @@
         <v>35</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -7442,18 +7523,18 @@
         <v>44</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -7465,16 +7546,16 @@
         <v>45</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7491,13 +7572,13 @@
         <v>28</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7514,19 +7595,19 @@
         <v>29</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,13 +7624,13 @@
         <v>42</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7566,16 +7647,16 @@
         <v>43</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7592,13 +7673,13 @@
         <v>34</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,16 +7696,16 @@
         <v>35</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7641,13 +7722,13 @@
         <v>44</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7664,21 +7745,21 @@
         <v>45</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -7690,18 +7771,18 @@
         <v>46</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>4</v>
@@ -7713,21 +7794,21 @@
         <v>47</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>5</v>
@@ -7739,18 +7820,18 @@
         <v>48</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -7762,21 +7843,21 @@
         <v>49</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -7788,18 +7869,18 @@
         <v>50</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -7811,21 +7892,21 @@
         <v>51</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -7837,18 +7918,18 @@
         <v>52</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>7</v>
@@ -7860,21 +7941,21 @@
         <v>53</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>4</v>
@@ -7886,21 +7967,21 @@
         <v>46</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -7912,21 +7993,21 @@
         <v>47</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -7938,18 +8019,18 @@
         <v>48</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>5</v>
@@ -7961,21 +8042,21 @@
         <v>49</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>6</v>
@@ -7987,18 +8068,18 @@
         <v>50</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>6</v>
@@ -8010,21 +8091,21 @@
         <v>51</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>7</v>
@@ -8036,18 +8117,18 @@
         <v>52</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>7</v>
@@ -8059,21 +8140,21 @@
         <v>53</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>4</v>
@@ -8085,18 +8166,18 @@
         <v>54</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
@@ -8108,21 +8189,21 @@
         <v>55</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -8134,18 +8215,18 @@
         <v>56</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>5</v>
@@ -8157,21 +8238,21 @@
         <v>57</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>6</v>
@@ -8183,18 +8264,18 @@
         <v>58</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>6</v>
@@ -8206,21 +8287,21 @@
         <v>59</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>7</v>
@@ -8232,18 +8313,18 @@
         <v>60</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>7</v>
@@ -8255,21 +8336,21 @@
         <v>61</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>4</v>
@@ -8281,21 +8362,21 @@
         <v>54</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>4</v>
@@ -8307,21 +8388,21 @@
         <v>55</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>5</v>
@@ -8333,18 +8414,18 @@
         <v>56</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>5</v>
@@ -8356,21 +8437,21 @@
         <v>57</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>6</v>
@@ -8382,18 +8463,18 @@
         <v>58</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
@@ -8405,21 +8486,21 @@
         <v>59</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>7</v>
@@ -8431,18 +8512,18 @@
         <v>60</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>7</v>
@@ -8454,21 +8535,21 @@
         <v>61</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>4</v>
@@ -8480,18 +8561,18 @@
         <v>62</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -8503,21 +8584,21 @@
         <v>63</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -8529,18 +8610,18 @@
         <v>64</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>5</v>
@@ -8552,21 +8633,21 @@
         <v>65</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>6</v>
@@ -8578,18 +8659,18 @@
         <v>66</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
@@ -8601,21 +8682,21 @@
         <v>67</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>7</v>
@@ -8627,18 +8708,18 @@
         <v>68</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>7</v>
@@ -8650,21 +8731,21 @@
         <v>69</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>4</v>
@@ -8676,21 +8757,21 @@
         <v>62</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>4</v>
@@ -8702,21 +8783,21 @@
         <v>63</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>5</v>
@@ -8728,18 +8809,18 @@
         <v>64</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>5</v>
@@ -8751,21 +8832,21 @@
         <v>65</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>6</v>
@@ -8777,18 +8858,18 @@
         <v>66</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
@@ -8800,21 +8881,21 @@
         <v>67</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>7</v>
@@ -8826,18 +8907,18 @@
         <v>68</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -8849,21 +8930,21 @@
         <v>69</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>4</v>
@@ -8875,18 +8956,18 @@
         <v>70</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>4</v>
@@ -8898,21 +8979,21 @@
         <v>71</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>5</v>
@@ -8924,18 +9005,18 @@
         <v>72</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -8947,21 +9028,21 @@
         <v>73</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -8973,18 +9054,18 @@
         <v>74</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>6</v>
@@ -8996,21 +9077,21 @@
         <v>75</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>7</v>
@@ -9022,18 +9103,18 @@
         <v>76</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>7</v>
@@ -9045,21 +9126,21 @@
         <v>77</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>4</v>
@@ -9071,21 +9152,21 @@
         <v>70</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -9097,21 +9178,21 @@
         <v>71</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>5</v>
@@ -9123,18 +9204,18 @@
         <v>72</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -9146,21 +9227,21 @@
         <v>73</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
@@ -9172,18 +9253,18 @@
         <v>74</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>6</v>
@@ -9195,21 +9276,21 @@
         <v>75</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>7</v>
@@ -9221,18 +9302,18 @@
         <v>76</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>7</v>
@@ -9244,21 +9325,21 @@
         <v>77</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>4</v>
@@ -9270,21 +9351,21 @@
         <v>78</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -9296,24 +9377,24 @@
         <v>79</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>5</v>
@@ -9325,21 +9406,21 @@
         <v>80</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>5</v>
@@ -9351,24 +9432,24 @@
         <v>81</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>6</v>
@@ -9380,21 +9461,21 @@
         <v>82</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -9406,24 +9487,24 @@
         <v>83</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -9435,21 +9516,21 @@
         <v>84</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>7</v>
@@ -9461,24 +9542,24 @@
         <v>85</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>4</v>
@@ -9490,18 +9571,18 @@
         <v>78</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>4</v>
@@ -9513,21 +9594,21 @@
         <v>79</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>5</v>
@@ -9539,18 +9620,18 @@
         <v>80</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>5</v>
@@ -9562,21 +9643,21 @@
         <v>81</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>6</v>
@@ -9588,18 +9669,18 @@
         <v>82</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6</v>
@@ -9611,21 +9692,21 @@
         <v>83</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>7</v>
@@ -9637,18 +9718,18 @@
         <v>84</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>7</v>
@@ -9660,21 +9741,21 @@
         <v>85</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>4</v>
@@ -9686,18 +9767,18 @@
         <v>86</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>4</v>
@@ -9709,21 +9790,21 @@
         <v>87</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>5</v>
@@ -9735,18 +9816,18 @@
         <v>88</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>5</v>
@@ -9758,21 +9839,21 @@
         <v>89</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>6</v>
@@ -9784,18 +9865,18 @@
         <v>90</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>6</v>
@@ -9807,21 +9888,21 @@
         <v>91</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>7</v>
@@ -9833,18 +9914,18 @@
         <v>92</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>7</v>
@@ -9856,21 +9937,21 @@
         <v>93</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>4</v>
@@ -9882,18 +9963,18 @@
         <v>86</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>4</v>
@@ -9905,21 +9986,21 @@
         <v>87</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>5</v>
@@ -9931,18 +10012,18 @@
         <v>88</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>5</v>
@@ -9954,21 +10035,21 @@
         <v>89</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>6</v>
@@ -9980,18 +10061,18 @@
         <v>90</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>6</v>
@@ -10003,21 +10084,21 @@
         <v>91</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>7</v>
@@ -10029,18 +10110,18 @@
         <v>92</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="107" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B173" s="107" t="n">
         <v>7</v>
@@ -10053,17 +10134,17 @@
         <v>93</v>
       </c>
       <c r="F173" s="107" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G173" s="107" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H173" s="107"/>
       <c r="I173" s="107" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J173" s="107" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10080,13 +10161,13 @@
         <v>94</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10103,16 +10184,16 @@
         <v>95</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10129,13 +10210,13 @@
         <v>96</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10152,16 +10233,16 @@
         <v>97</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10178,13 +10259,13 @@
         <v>98</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10201,16 +10282,16 @@
         <v>99</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10227,13 +10308,13 @@
         <v>100</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10250,16 +10331,16 @@
         <v>101</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10276,13 +10357,13 @@
         <v>102</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10299,19 +10380,19 @@
         <v>103</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10328,13 +10409,13 @@
         <v>104</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10351,19 +10432,19 @@
         <v>105</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10380,13 +10461,13 @@
         <v>106</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10403,19 +10484,19 @@
         <v>107</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I187" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J187" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L187" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="J187" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L187" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10432,13 +10513,13 @@
         <v>108</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10455,19 +10536,19 @@
         <v>109</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10484,13 +10565,13 @@
         <v>110</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10507,24 +10588,24 @@
         <v>111</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>13</v>
@@ -10536,22 +10617,22 @@
         <v>113</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10568,13 +10649,13 @@
         <v>114</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10591,24 +10672,24 @@
         <v>115</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>20</v>
@@ -10620,18 +10701,18 @@
         <v>116</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>20</v>
@@ -10643,19 +10724,19 @@
         <v>117</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I196" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="J196" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L196" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="J196" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L196" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10672,13 +10753,13 @@
         <v>118</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10695,16 +10776,16 @@
         <v>119</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10721,16 +10802,16 @@
         <v>120</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10747,19 +10828,19 @@
         <v>121</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10776,13 +10857,13 @@
         <v>122</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10799,16 +10880,16 @@
         <v>123</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10825,16 +10906,16 @@
         <v>124</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10851,19 +10932,19 @@
         <v>125</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10880,13 +10961,13 @@
         <v>126</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10903,16 +10984,16 @@
         <v>127</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10929,16 +11010,16 @@
         <v>128</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10955,19 +11036,19 @@
         <v>129</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10984,13 +11065,13 @@
         <v>130</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11007,16 +11088,16 @@
         <v>131</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11033,13 +11114,13 @@
         <v>134</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11056,16 +11137,16 @@
         <v>135</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11082,13 +11163,13 @@
         <v>132</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11105,16 +11186,16 @@
         <v>133</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11131,13 +11212,13 @@
         <v>136</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11154,16 +11235,16 @@
         <v>137</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11180,13 +11261,13 @@
         <v>142</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11203,13 +11284,13 @@
         <v>143</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11226,16 +11307,16 @@
         <v>138</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11252,19 +11333,19 @@
         <v>139</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11281,16 +11362,16 @@
         <v>144</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11307,16 +11388,16 @@
         <v>145</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11333,19 +11414,19 @@
         <v>147</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11362,16 +11443,16 @@
         <v>148</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11388,16 +11469,16 @@
         <v>149</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11414,16 +11495,16 @@
         <v>149</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11440,10 +11521,10 @@
         <v>146</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11460,10 +11541,10 @@
         <v>150</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11480,19 +11561,19 @@
         <v>151</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L229" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11509,19 +11590,19 @@
         <v>152</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L230" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11538,16 +11619,16 @@
         <v>153</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11564,21 +11645,21 @@
         <v>154</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>24</v>
@@ -11590,21 +11671,21 @@
         <v>155</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>25</v>
@@ -11616,21 +11697,21 @@
         <v>156</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>25</v>
@@ -11642,21 +11723,21 @@
         <v>157</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>25</v>
@@ -11668,16 +11749,16 @@
         <v>158</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11688,13 +11769,13 @@
         <v>159</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11711,16 +11792,16 @@
         <v>165</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11737,19 +11818,19 @@
         <v>166</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11766,16 +11847,16 @@
         <v>167</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11792,19 +11873,19 @@
         <v>168</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11821,16 +11902,16 @@
         <v>169</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11847,19 +11928,19 @@
         <v>170</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11876,16 +11957,16 @@
         <v>171</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11902,19 +11983,19 @@
         <v>172</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11925,10 +12006,10 @@
         <v>145</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11939,10 +12020,10 @@
         <v>116</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11959,16 +12040,16 @@
         <v>161</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11982,16 +12063,16 @@
         <v>4</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12005,16 +12086,16 @@
         <v>4</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12031,16 +12112,16 @@
         <v>160</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12057,16 +12138,16 @@
         <v>162</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12083,16 +12164,16 @@
         <v>163</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12109,16 +12190,16 @@
         <v>164</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12135,19 +12216,19 @@
         <v>182</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L255" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12164,16 +12245,16 @@
         <v>183</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12190,13 +12271,13 @@
         <v>184</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12213,13 +12294,13 @@
         <v>185</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12236,16 +12317,16 @@
         <v>186</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12256,31 +12337,31 @@
         <v>191</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M260" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N260" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O260" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P260" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q260" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="R260" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12297,13 +12378,13 @@
         <v>187</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I261" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M261" s="0" t="n">
         <v>1</v>
@@ -12338,13 +12419,13 @@
         <v>188</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I262" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M262" s="0" t="n">
         <v>1</v>
@@ -12379,13 +12460,13 @@
         <v>190</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M263" s="0" t="n">
         <v>5</v>
@@ -12420,13 +12501,13 @@
         <v>194</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M264" s="0" t="n">
         <v>5</v>
@@ -12449,7 +12530,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>21</v>
@@ -12461,13 +12542,13 @@
         <v>195</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M265" s="0" t="n">
         <v>1</v>
@@ -12490,7 +12571,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>21</v>
@@ -12502,13 +12583,13 @@
         <v>196</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M266" s="0" t="n">
         <v>1</v>
@@ -12531,7 +12612,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>26</v>
@@ -12543,18 +12624,18 @@
         <v>197</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>26</v>
@@ -12566,13 +12647,13 @@
         <v>198</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12605,24 +12686,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -12657,21 +12738,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -12683,7 +12764,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
@@ -12695,7 +12776,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -12741,7 +12822,7 @@
         <v>0.0100401606425703</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="314">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t xml:space="preserve">IPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/03/09</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -1284,7 +1287,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1709,6 +1712,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2465,9 +2476,9 @@
   <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K62" activeCellId="0" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4743,77 +4754,157 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="96" t="n">
+      <c r="A63" s="106" t="n">
         <f aca="false">IF(ISBLANK(H63),"", H63/(G63+L63)*(($G$13+$L$13)/$H$13))</f>
         <v>3.5</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="99" t="n">
         <v>30</v>
       </c>
-      <c r="C63" s="103" t="n">
+      <c r="C63" s="107" t="n">
         <f aca="false">IF(ISBLANK(H63),"",H63/G63*(G$13/H$13))</f>
         <v>4.125</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="0" t="s">
+      <c r="D63" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="F63" s="99"/>
+      <c r="G63" s="99" t="n">
         <v>2.4</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63" s="99" t="n">
         <v>0.1</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="I63" s="100"/>
+      <c r="J63" s="99" t="n">
         <v>0.025</v>
       </c>
-      <c r="K63" s="0" t="s">
+      <c r="K63" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="L63" s="0" t="n">
+      <c r="L63" s="99" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="96" t="str">
+      <c r="A64" s="96" t="n">
         <f aca="false">IF(ISBLANK(H64),"", H64/(G64+L64)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C64" s="103" t="str">
+        <v>1.72463768115942</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C64" s="103" t="n">
         <f aca="false">IF(ISBLANK(H64),"",H64/G64*(G$13/H$13))</f>
-        <v/>
+        <v>2.02040816326531</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="96" t="str">
+      <c r="A65" s="96" t="n">
         <f aca="false">IF(ISBLANK(H65),"", H65/(G65+L65)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C65" s="103" t="str">
+        <v>2.60583941605839</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C65" s="103" t="n">
         <f aca="false">IF(ISBLANK(H65),"",H65/G65*(G$13/H$13))</f>
-        <v/>
+        <v>3.06185567010309</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="96" t="str">
+      <c r="A66" s="96" t="n">
         <f aca="false">IF(ISBLANK(H66),"", H66/(G66+L66)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C66" s="103" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C66" s="103" t="n">
         <f aca="false">IF(ISBLANK(H66),"",H66/G66*(G$13/H$13))</f>
-        <v/>
+        <v>4.125</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="96" t="str">
+      <c r="A67" s="96" t="n">
         <f aca="false">IF(ISBLANK(H67),"", H67/(G67+L67)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C67" s="103" t="str">
+        <v>4.40740740740741</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C67" s="103" t="n">
         <f aca="false">IF(ISBLANK(H67),"",H67/G67*(G$13/H$13))</f>
-        <v/>
+        <v>5.21052631578947</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4978,406 +5069,406 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="E1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="G1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="I1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="K1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="M1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="O1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="Q1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="S1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="U1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="V1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="W1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="Y1" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="Z1" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="AA1" s="101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>150</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>160</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>170</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>180</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>190</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>200</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>250</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>300</v>
       </c>
       <c r="W2" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>350</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>400</v>
       </c>
       <c r="AA2" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>160</v>
       </c>
       <c r="I3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>170</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>180</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>190</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>200</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>250</v>
       </c>
       <c r="S3" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>300</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>350</v>
       </c>
       <c r="W3" s="101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>400</v>
       </c>
       <c r="Y3" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>500</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5411,7 +5502,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="106" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="108" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.05"/>
@@ -5431,32 +5522,32 @@
       <c r="C1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="106" t="s">
-        <v>120</v>
+      <c r="D1" s="108" t="s">
+        <v>121</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,32 +5560,32 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="106" t="s">
-        <v>147</v>
+      <c r="D2" s="108" t="s">
+        <v>148</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -5502,14 +5593,14 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="106" t="s">
-        <v>152</v>
+      <c r="D3" s="108" t="s">
+        <v>153</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5519,13 +5610,13 @@
         <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,14 +5629,14 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="106" t="s">
-        <v>155</v>
+      <c r="D4" s="108" t="s">
+        <v>156</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5555,13 +5646,13 @@
         <v>60</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5574,14 +5665,14 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="106" t="s">
-        <v>157</v>
+      <c r="D5" s="108" t="s">
+        <v>158</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5591,13 +5682,13 @@
         <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5610,14 +5701,14 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="106" t="s">
-        <v>159</v>
+      <c r="D6" s="108" t="s">
+        <v>160</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5627,13 +5718,13 @@
         <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5646,14 +5737,14 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="106" t="s">
-        <v>161</v>
+      <c r="D7" s="108" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5663,18 +5754,18 @@
         <v>60</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -5682,34 +5773,34 @@
       <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="106" t="s">
-        <v>164</v>
+      <c r="D8" s="108" t="s">
+        <v>165</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -5717,34 +5808,34 @@
       <c r="C9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="106" t="s">
-        <v>168</v>
+      <c r="D9" s="108" t="s">
+        <v>169</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -5752,14 +5843,14 @@
       <c r="C10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="106" t="s">
-        <v>170</v>
+      <c r="D10" s="108" t="s">
+        <v>171</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5769,18 +5860,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -5788,14 +5879,14 @@
       <c r="C11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="106" t="s">
-        <v>171</v>
+      <c r="D11" s="108" t="s">
+        <v>172</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5805,18 +5896,18 @@
         <v>20</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -5824,34 +5915,34 @@
       <c r="C12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="106" t="s">
-        <v>173</v>
+      <c r="D12" s="108" t="s">
+        <v>174</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -5859,34 +5950,34 @@
       <c r="C13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="106" t="s">
-        <v>176</v>
+      <c r="D13" s="108" t="s">
+        <v>177</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -5894,14 +5985,14 @@
       <c r="C14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D14" s="106" t="s">
-        <v>178</v>
+      <c r="D14" s="108" t="s">
+        <v>179</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5911,18 +6002,18 @@
         <v>60</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -5930,14 +6021,14 @@
       <c r="C15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="106" t="s">
-        <v>179</v>
+      <c r="D15" s="108" t="s">
+        <v>180</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5947,13 +6038,13 @@
         <v>60</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5966,14 +6057,14 @@
       <c r="C16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="106" t="s">
-        <v>152</v>
+      <c r="D16" s="108" t="s">
+        <v>153</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5983,13 +6074,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6002,14 +6093,14 @@
       <c r="C17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D17" s="106" t="s">
-        <v>170</v>
+      <c r="D17" s="108" t="s">
+        <v>171</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6019,13 +6110,13 @@
         <v>20</v>
       </c>
       <c r="I17" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6038,14 +6129,14 @@
       <c r="C18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D18" s="106" t="s">
-        <v>183</v>
+      <c r="D18" s="108" t="s">
+        <v>184</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6055,13 +6146,13 @@
         <v>20</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6074,14 +6165,14 @@
       <c r="C19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="106" t="s">
-        <v>185</v>
+      <c r="D19" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6091,13 +6182,13 @@
         <v>20</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,14 +6201,14 @@
       <c r="C20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="106" t="s">
-        <v>152</v>
+      <c r="D20" s="108" t="s">
+        <v>153</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6127,13 +6218,13 @@
         <v>20</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6146,14 +6237,14 @@
       <c r="C21" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="106" t="s">
-        <v>170</v>
+      <c r="D21" s="108" t="s">
+        <v>171</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6163,13 +6254,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6182,14 +6273,14 @@
       <c r="C22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D22" s="106" t="s">
-        <v>183</v>
+      <c r="D22" s="108" t="s">
+        <v>184</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6199,13 +6290,13 @@
         <v>20</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6218,14 +6309,14 @@
       <c r="C23" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D23" s="106" t="s">
-        <v>185</v>
+      <c r="D23" s="108" t="s">
+        <v>186</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6235,13 +6326,13 @@
         <v>20</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6254,14 +6345,14 @@
       <c r="C24" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="106" t="s">
-        <v>192</v>
+      <c r="D24" s="108" t="s">
+        <v>193</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6271,13 +6362,13 @@
         <v>20</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,34 +6381,34 @@
       <c r="C25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D25" s="106" t="s">
-        <v>194</v>
+      <c r="D25" s="108" t="s">
+        <v>195</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -6325,34 +6416,34 @@
       <c r="C26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D26" s="106" t="s">
-        <v>173</v>
+      <c r="D26" s="108" t="s">
+        <v>174</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -6360,31 +6451,31 @@
       <c r="C27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D27" s="106" t="s">
-        <v>176</v>
+      <c r="D27" s="108" t="s">
+        <v>177</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -6392,32 +6483,32 @@
       <c r="C28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D28" s="106" t="s">
-        <v>192</v>
+      <c r="D28" s="108" t="s">
+        <v>193</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -6425,31 +6516,31 @@
       <c r="C29" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="106" t="s">
-        <v>194</v>
+      <c r="D29" s="108" t="s">
+        <v>195</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I29" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -6457,32 +6548,32 @@
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="106" t="s">
-        <v>199</v>
+      <c r="D30" s="108" t="s">
+        <v>200</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -6490,32 +6581,32 @@
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="106" t="s">
-        <v>202</v>
+      <c r="D31" s="108" t="s">
+        <v>203</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -6523,32 +6614,32 @@
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="106" t="s">
-        <v>203</v>
+      <c r="D32" s="108" t="s">
+        <v>204</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3</v>
@@ -6556,32 +6647,32 @@
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="106" t="s">
-        <v>205</v>
+      <c r="D33" s="108" t="s">
+        <v>206</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -6589,29 +6680,29 @@
       <c r="C34" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D34" s="106" t="s">
-        <v>192</v>
+      <c r="D34" s="108" t="s">
+        <v>193</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -6619,28 +6710,28 @@
       <c r="C35" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="106" t="s">
-        <v>208</v>
+      <c r="D35" s="108" t="s">
+        <v>209</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -6648,29 +6739,29 @@
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="106" t="s">
-        <v>209</v>
+      <c r="D36" s="108" t="s">
+        <v>210</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -6678,28 +6769,28 @@
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="106" t="s">
-        <v>210</v>
+      <c r="D37" s="108" t="s">
+        <v>211</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3</v>
@@ -6707,29 +6798,29 @@
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="106" t="s">
-        <v>211</v>
+      <c r="D38" s="108" t="s">
+        <v>212</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>3</v>
@@ -6737,28 +6828,28 @@
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="106" t="s">
-        <v>212</v>
+      <c r="D39" s="108" t="s">
+        <v>213</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -6766,32 +6857,32 @@
       <c r="C40" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D40" s="106" t="s">
-        <v>214</v>
+      <c r="D40" s="108" t="s">
+        <v>215</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -6799,34 +6890,34 @@
       <c r="C41" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D41" s="106" t="s">
-        <v>208</v>
+      <c r="D41" s="108" t="s">
+        <v>209</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -6834,32 +6925,32 @@
       <c r="C42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="106" t="s">
-        <v>209</v>
+      <c r="D42" s="108" t="s">
+        <v>210</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
@@ -6867,34 +6958,34 @@
       <c r="C43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="106" t="s">
-        <v>210</v>
+      <c r="D43" s="108" t="s">
+        <v>211</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3</v>
@@ -6902,32 +6993,32 @@
       <c r="C44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="106" t="s">
-        <v>211</v>
+      <c r="D44" s="108" t="s">
+        <v>212</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3</v>
@@ -6935,34 +7026,34 @@
       <c r="C45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="106" t="s">
-        <v>212</v>
+      <c r="D45" s="108" t="s">
+        <v>213</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -6970,29 +7061,29 @@
       <c r="C46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D46" s="106" t="s">
-        <v>219</v>
+      <c r="D46" s="108" t="s">
+        <v>220</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -7000,28 +7091,28 @@
       <c r="C47" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D47" s="106" t="s">
-        <v>220</v>
+      <c r="D47" s="108" t="s">
+        <v>221</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2</v>
@@ -7033,18 +7124,18 @@
         <v>24</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2</v>
@@ -7056,21 +7147,21 @@
         <v>25</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>3</v>
@@ -7082,18 +7173,18 @@
         <v>26</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>3</v>
@@ -7105,21 +7196,21 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -7131,18 +7222,18 @@
         <v>22</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
@@ -7154,21 +7245,21 @@
         <v>23</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
@@ -7180,18 +7271,18 @@
         <v>24</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -7203,21 +7294,21 @@
         <v>25</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -7229,18 +7320,18 @@
         <v>26</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -7252,21 +7343,21 @@
         <v>27</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -7278,18 +7369,18 @@
         <v>38</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -7301,21 +7392,21 @@
         <v>39</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -7327,18 +7418,18 @@
         <v>40</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
@@ -7350,21 +7441,21 @@
         <v>41</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -7376,18 +7467,18 @@
         <v>28</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
@@ -7399,21 +7490,21 @@
         <v>29</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1</v>
@@ -7425,18 +7516,18 @@
         <v>42</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1</v>
@@ -7448,21 +7539,21 @@
         <v>43</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2</v>
@@ -7474,18 +7565,18 @@
         <v>34</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -7497,21 +7588,21 @@
         <v>35</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -7523,18 +7614,18 @@
         <v>44</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -7546,16 +7637,16 @@
         <v>45</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7572,13 +7663,13 @@
         <v>28</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7595,19 +7686,19 @@
         <v>29</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7624,13 +7715,13 @@
         <v>42</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,16 +7738,16 @@
         <v>43</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7673,13 +7764,13 @@
         <v>34</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7696,16 +7787,16 @@
         <v>35</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7722,13 +7813,13 @@
         <v>44</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7745,21 +7836,21 @@
         <v>45</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -7771,18 +7862,18 @@
         <v>46</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>4</v>
@@ -7794,21 +7885,21 @@
         <v>47</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>5</v>
@@ -7820,18 +7911,18 @@
         <v>48</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -7843,21 +7934,21 @@
         <v>49</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -7869,18 +7960,18 @@
         <v>50</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -7892,21 +7983,21 @@
         <v>51</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -7918,18 +8009,18 @@
         <v>52</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>7</v>
@@ -7941,21 +8032,21 @@
         <v>53</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>4</v>
@@ -7967,21 +8058,21 @@
         <v>46</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -7993,21 +8084,21 @@
         <v>47</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -8019,18 +8110,18 @@
         <v>48</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>5</v>
@@ -8042,21 +8133,21 @@
         <v>49</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>6</v>
@@ -8068,18 +8159,18 @@
         <v>50</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>6</v>
@@ -8091,21 +8182,21 @@
         <v>51</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>7</v>
@@ -8117,18 +8208,18 @@
         <v>52</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>7</v>
@@ -8140,21 +8231,21 @@
         <v>53</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>4</v>
@@ -8166,18 +8257,18 @@
         <v>54</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
@@ -8189,21 +8280,21 @@
         <v>55</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -8215,18 +8306,18 @@
         <v>56</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>5</v>
@@ -8238,21 +8329,21 @@
         <v>57</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>6</v>
@@ -8264,18 +8355,18 @@
         <v>58</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>6</v>
@@ -8287,21 +8378,21 @@
         <v>59</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>7</v>
@@ -8313,18 +8404,18 @@
         <v>60</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>7</v>
@@ -8336,21 +8427,21 @@
         <v>61</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>4</v>
@@ -8362,21 +8453,21 @@
         <v>54</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>4</v>
@@ -8388,21 +8479,21 @@
         <v>55</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>5</v>
@@ -8414,18 +8505,18 @@
         <v>56</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>5</v>
@@ -8437,21 +8528,21 @@
         <v>57</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>6</v>
@@ -8463,18 +8554,18 @@
         <v>58</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
@@ -8486,21 +8577,21 @@
         <v>59</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>7</v>
@@ -8512,18 +8603,18 @@
         <v>60</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>7</v>
@@ -8535,21 +8626,21 @@
         <v>61</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>4</v>
@@ -8561,18 +8652,18 @@
         <v>62</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -8584,21 +8675,21 @@
         <v>63</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -8610,18 +8701,18 @@
         <v>64</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>5</v>
@@ -8633,21 +8724,21 @@
         <v>65</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>6</v>
@@ -8659,18 +8750,18 @@
         <v>66</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
@@ -8682,21 +8773,21 @@
         <v>67</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>7</v>
@@ -8708,18 +8799,18 @@
         <v>68</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>7</v>
@@ -8731,21 +8822,21 @@
         <v>69</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>4</v>
@@ -8757,21 +8848,21 @@
         <v>62</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>4</v>
@@ -8783,21 +8874,21 @@
         <v>63</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>5</v>
@@ -8809,18 +8900,18 @@
         <v>64</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>5</v>
@@ -8832,21 +8923,21 @@
         <v>65</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>6</v>
@@ -8858,18 +8949,18 @@
         <v>66</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
@@ -8881,21 +8972,21 @@
         <v>67</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>7</v>
@@ -8907,18 +8998,18 @@
         <v>68</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -8930,21 +9021,21 @@
         <v>69</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>4</v>
@@ -8956,18 +9047,18 @@
         <v>70</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>4</v>
@@ -8979,21 +9070,21 @@
         <v>71</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>5</v>
@@ -9005,18 +9096,18 @@
         <v>72</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -9028,21 +9119,21 @@
         <v>73</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -9054,18 +9145,18 @@
         <v>74</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>6</v>
@@ -9077,21 +9168,21 @@
         <v>75</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>7</v>
@@ -9103,18 +9194,18 @@
         <v>76</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>7</v>
@@ -9126,21 +9217,21 @@
         <v>77</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>4</v>
@@ -9152,21 +9243,21 @@
         <v>70</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -9178,21 +9269,21 @@
         <v>71</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>5</v>
@@ -9204,18 +9295,18 @@
         <v>72</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -9227,21 +9318,21 @@
         <v>73</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
@@ -9253,18 +9344,18 @@
         <v>74</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>6</v>
@@ -9276,21 +9367,21 @@
         <v>75</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>7</v>
@@ -9302,18 +9393,18 @@
         <v>76</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>7</v>
@@ -9325,21 +9416,21 @@
         <v>77</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>4</v>
@@ -9351,21 +9442,21 @@
         <v>78</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -9377,24 +9468,24 @@
         <v>79</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>5</v>
@@ -9406,21 +9497,21 @@
         <v>80</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>5</v>
@@ -9432,24 +9523,24 @@
         <v>81</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>6</v>
@@ -9461,21 +9552,21 @@
         <v>82</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -9487,24 +9578,24 @@
         <v>83</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -9516,21 +9607,21 @@
         <v>84</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>7</v>
@@ -9542,24 +9633,24 @@
         <v>85</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>4</v>
@@ -9571,18 +9662,18 @@
         <v>78</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>4</v>
@@ -9594,21 +9685,21 @@
         <v>79</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>5</v>
@@ -9620,18 +9711,18 @@
         <v>80</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>5</v>
@@ -9643,21 +9734,21 @@
         <v>81</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>6</v>
@@ -9669,18 +9760,18 @@
         <v>82</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6</v>
@@ -9692,21 +9783,21 @@
         <v>83</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>7</v>
@@ -9718,18 +9809,18 @@
         <v>84</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>7</v>
@@ -9741,21 +9832,21 @@
         <v>85</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>4</v>
@@ -9767,18 +9858,18 @@
         <v>86</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>4</v>
@@ -9790,21 +9881,21 @@
         <v>87</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>5</v>
@@ -9816,18 +9907,18 @@
         <v>88</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>5</v>
@@ -9839,21 +9930,21 @@
         <v>89</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>6</v>
@@ -9865,18 +9956,18 @@
         <v>90</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>6</v>
@@ -9888,21 +9979,21 @@
         <v>91</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>7</v>
@@ -9914,18 +10005,18 @@
         <v>92</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>7</v>
@@ -9937,21 +10028,21 @@
         <v>93</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>4</v>
@@ -9963,18 +10054,18 @@
         <v>86</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>4</v>
@@ -9986,21 +10077,21 @@
         <v>87</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>5</v>
@@ -10012,18 +10103,18 @@
         <v>88</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>5</v>
@@ -10035,21 +10126,21 @@
         <v>89</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>6</v>
@@ -10061,18 +10152,18 @@
         <v>90</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>6</v>
@@ -10084,21 +10175,21 @@
         <v>91</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>7</v>
@@ -10110,41 +10201,41 @@
         <v>92</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="B173" s="107" t="n">
+      <c r="A173" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B173" s="109" t="n">
         <v>7</v>
       </c>
-      <c r="C173" s="107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D173" s="108"/>
-      <c r="E173" s="107" t="n">
+      <c r="C173" s="109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" s="110"/>
+      <c r="E173" s="109" t="n">
         <v>93</v>
       </c>
-      <c r="F173" s="107" t="s">
-        <v>148</v>
-      </c>
-      <c r="G173" s="107" t="s">
-        <v>186</v>
-      </c>
-      <c r="H173" s="107"/>
-      <c r="I173" s="107" t="s">
-        <v>234</v>
-      </c>
-      <c r="J173" s="107" t="s">
-        <v>137</v>
+      <c r="F173" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="G173" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="H173" s="109"/>
+      <c r="I173" s="109" t="s">
+        <v>235</v>
+      </c>
+      <c r="J173" s="109" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10161,13 +10252,13 @@
         <v>94</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10184,16 +10275,16 @@
         <v>95</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10210,13 +10301,13 @@
         <v>96</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10233,16 +10324,16 @@
         <v>97</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10259,13 +10350,13 @@
         <v>98</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10282,16 +10373,16 @@
         <v>99</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10308,13 +10399,13 @@
         <v>100</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10331,16 +10422,16 @@
         <v>101</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10357,13 +10448,13 @@
         <v>102</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10380,19 +10471,19 @@
         <v>103</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10409,13 +10500,13 @@
         <v>104</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10432,19 +10523,19 @@
         <v>105</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10461,13 +10552,13 @@
         <v>106</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10484,19 +10575,19 @@
         <v>107</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10513,13 +10604,13 @@
         <v>108</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10536,19 +10627,19 @@
         <v>109</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10565,13 +10656,13 @@
         <v>110</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10588,24 +10679,24 @@
         <v>111</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>13</v>
@@ -10617,22 +10708,22 @@
         <v>113</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10649,13 +10740,13 @@
         <v>114</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10672,24 +10763,24 @@
         <v>115</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I194" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="J194" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="L194" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="J194" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="L194" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>20</v>
@@ -10701,18 +10792,18 @@
         <v>116</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>20</v>
@@ -10724,19 +10815,19 @@
         <v>117</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10753,13 +10844,13 @@
         <v>118</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10776,16 +10867,16 @@
         <v>119</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10802,16 +10893,16 @@
         <v>120</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10828,19 +10919,19 @@
         <v>121</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10857,13 +10948,13 @@
         <v>122</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10880,16 +10971,16 @@
         <v>123</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10906,16 +10997,16 @@
         <v>124</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10932,19 +11023,19 @@
         <v>125</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10961,13 +11052,13 @@
         <v>126</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10984,16 +11075,16 @@
         <v>127</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11010,16 +11101,16 @@
         <v>128</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11036,19 +11127,19 @@
         <v>129</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11065,13 +11156,13 @@
         <v>130</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11088,16 +11179,16 @@
         <v>131</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11114,13 +11205,13 @@
         <v>134</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11137,16 +11228,16 @@
         <v>135</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11163,13 +11254,13 @@
         <v>132</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11186,16 +11277,16 @@
         <v>133</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11212,13 +11303,13 @@
         <v>136</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11235,16 +11326,16 @@
         <v>137</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11261,13 +11352,13 @@
         <v>142</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11284,13 +11375,13 @@
         <v>143</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11307,16 +11398,16 @@
         <v>138</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11333,19 +11424,19 @@
         <v>139</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11362,16 +11453,16 @@
         <v>144</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11388,16 +11479,16 @@
         <v>145</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11414,19 +11505,19 @@
         <v>147</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11443,16 +11534,16 @@
         <v>148</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11469,16 +11560,16 @@
         <v>149</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11495,16 +11586,16 @@
         <v>149</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11521,10 +11612,10 @@
         <v>146</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11541,10 +11632,10 @@
         <v>150</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11561,19 +11652,19 @@
         <v>151</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L229" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11590,19 +11681,19 @@
         <v>152</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L230" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11619,16 +11710,16 @@
         <v>153</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11645,21 +11736,21 @@
         <v>154</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>24</v>
@@ -11671,21 +11762,21 @@
         <v>155</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>25</v>
@@ -11697,21 +11788,21 @@
         <v>156</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>25</v>
@@ -11723,21 +11814,21 @@
         <v>157</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>25</v>
@@ -11749,16 +11840,16 @@
         <v>158</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11769,13 +11860,13 @@
         <v>159</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11792,16 +11883,16 @@
         <v>165</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11818,19 +11909,19 @@
         <v>166</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11847,16 +11938,16 @@
         <v>167</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11873,19 +11964,19 @@
         <v>168</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11902,16 +11993,16 @@
         <v>169</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11928,19 +12019,19 @@
         <v>170</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11957,16 +12048,16 @@
         <v>171</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11983,19 +12074,19 @@
         <v>172</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12006,10 +12097,10 @@
         <v>145</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12020,10 +12111,10 @@
         <v>116</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12040,16 +12131,16 @@
         <v>161</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12063,16 +12154,16 @@
         <v>4</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12086,16 +12177,16 @@
         <v>4</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12112,16 +12203,16 @@
         <v>160</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12138,16 +12229,16 @@
         <v>162</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12164,16 +12255,16 @@
         <v>163</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12190,16 +12281,16 @@
         <v>164</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12216,19 +12307,19 @@
         <v>182</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L255" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12245,16 +12336,16 @@
         <v>183</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12271,13 +12362,13 @@
         <v>184</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12294,13 +12385,13 @@
         <v>185</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12317,16 +12408,16 @@
         <v>186</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12337,31 +12428,31 @@
         <v>191</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M260" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N260" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O260" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P260" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q260" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R260" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12378,13 +12469,13 @@
         <v>187</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I261" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M261" s="0" t="n">
         <v>1</v>
@@ -12419,13 +12510,13 @@
         <v>188</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I262" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M262" s="0" t="n">
         <v>1</v>
@@ -12460,13 +12551,13 @@
         <v>190</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M263" s="0" t="n">
         <v>5</v>
@@ -12501,13 +12592,13 @@
         <v>194</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M264" s="0" t="n">
         <v>5</v>
@@ -12530,7 +12621,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>21</v>
@@ -12542,13 +12633,13 @@
         <v>195</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M265" s="0" t="n">
         <v>1</v>
@@ -12571,7 +12662,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>21</v>
@@ -12583,13 +12674,13 @@
         <v>196</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M266" s="0" t="n">
         <v>1</v>
@@ -12612,7 +12703,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>26</v>
@@ -12624,18 +12715,18 @@
         <v>197</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>26</v>
@@ -12647,13 +12738,13 @@
         <v>198</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12686,24 +12777,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -12738,21 +12829,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="103" t="s">
         <v>309</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -12764,7 +12855,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
@@ -12776,7 +12867,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -12808,7 +12899,7 @@
       <c r="C7" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="D7" s="109" t="n">
+      <c r="D7" s="111" t="n">
         <f aca="false">IF(ISBLANK(B7),IF(ISBLANK(C7),"",10/60/C7),B7)</f>
         <v>0.0505050505050505</v>
       </c>
@@ -12817,19 +12908,19 @@
       <c r="C8" s="0" t="n">
         <v>16.6</v>
       </c>
-      <c r="D8" s="109" t="n">
+      <c r="D8" s="111" t="n">
         <f aca="false">IF(ISBLANK(B8),IF(ISBLANK(C8),"",10/60/C8),B8)</f>
         <v>0.0100401606425703</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
         <v>33.3</v>
       </c>
-      <c r="D9" s="110" t="n">
+      <c r="D9" s="112" t="n">
         <f aca="false">IF(ISBLANK(B9),IF(ISBLANK(C9),"",10/60/C9),B9)</f>
         <v>0.00500500500500501</v>
       </c>
@@ -12838,7 +12929,7 @@
       <c r="C10" s="0" t="n">
         <v>166.6</v>
       </c>
-      <c r="D10" s="110" t="n">
+      <c r="D10" s="112" t="n">
         <f aca="false">IF(ISBLANK(B10),IF(ISBLANK(C10),"",10/60/C10),B10)</f>
         <v>0.00100040016006403</v>
       </c>

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="318">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -390,6 +390,9 @@
     <t xml:space="preserve">2021/03/09</t>
   </si>
   <si>
+    <t xml:space="preserve">2021/03/10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -921,7 +924,7 @@
     <t xml:space="preserve">TDOC</t>
   </si>
   <si>
-    <t xml:space="preserve">Tvel</t>
+    <t xml:space="preserve">vCal</t>
   </si>
   <si>
     <t xml:space="preserve">Tcal</t>
@@ -930,7 +933,16 @@
     <t xml:space="preserve">/</t>
   </si>
   <si>
-    <t xml:space="preserve">2021/02/12</t>
+    <t xml:space="preserve">8x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9x</t>
   </si>
   <si>
     <t xml:space="preserve">SC1</t>
@@ -2475,10 +2487,10 @@
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
+      <selection pane="bottomLeft" activeCell="E67" activeCellId="0" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4865,6 +4877,9 @@
       </c>
       <c r="D66" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>2.4</v>
@@ -5069,406 +5084,406 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="E1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="I1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="K1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="M1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="O1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="Q1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="S1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="U1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="W1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="Y1" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="AA1" s="101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>150</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>160</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>170</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>180</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>190</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>200</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>250</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>300</v>
       </c>
       <c r="W2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>350</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>400</v>
       </c>
       <c r="AA2" s="101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>160</v>
       </c>
       <c r="I3" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>170</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>180</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>190</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>200</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>250</v>
       </c>
       <c r="S3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>300</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>350</v>
       </c>
       <c r="W3" s="101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>400</v>
       </c>
       <c r="Y3" s="101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>500</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5489,12 +5504,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J269" activeCellId="0" sqref="J269"/>
+      <selection pane="bottomLeft" activeCell="A285" activeCellId="0" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5523,31 +5538,31 @@
         <v>51</v>
       </c>
       <c r="D1" s="108" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5561,31 +5576,31 @@
         <v>0</v>
       </c>
       <c r="D2" s="108" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -5594,13 +5609,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="108" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5610,13 +5625,13 @@
         <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,13 +5645,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5646,13 +5661,13 @@
         <v>60</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5666,13 +5681,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5682,13 +5697,13 @@
         <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5702,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5718,13 +5733,13 @@
         <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5738,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5754,18 +5769,18 @@
         <v>60</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -5774,33 +5789,33 @@
         <v>2</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -5809,33 +5824,33 @@
         <v>2</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -5844,13 +5859,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5860,18 +5875,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -5880,13 +5895,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5896,18 +5911,18 @@
         <v>20</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -5916,33 +5931,33 @@
         <v>2</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -5951,33 +5966,33 @@
         <v>2</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -5986,13 +6001,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="108" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6002,18 +6017,18 @@
         <v>60</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -6022,13 +6037,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6038,13 +6053,13 @@
         <v>60</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6058,13 +6073,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6074,13 +6089,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6094,13 +6109,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6110,13 +6125,13 @@
         <v>20</v>
       </c>
       <c r="I17" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,13 +6145,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6146,13 +6161,13 @@
         <v>20</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6166,13 +6181,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6182,13 +6197,13 @@
         <v>20</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6202,13 +6217,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="108" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6218,13 +6233,13 @@
         <v>20</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6238,13 +6253,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6254,13 +6269,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6274,13 +6289,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6290,13 +6305,13 @@
         <v>20</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6310,13 +6325,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6326,13 +6341,13 @@
         <v>20</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6346,13 +6361,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6362,13 +6377,13 @@
         <v>20</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6382,33 +6397,33 @@
         <v>4</v>
       </c>
       <c r="D25" s="108" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -6417,33 +6432,33 @@
         <v>4</v>
       </c>
       <c r="D26" s="108" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -6452,30 +6467,30 @@
         <v>4</v>
       </c>
       <c r="D27" s="108" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -6484,31 +6499,31 @@
         <v>4</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -6517,30 +6532,30 @@
         <v>4</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I29" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -6549,31 +6564,31 @@
         <v>1</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -6582,31 +6597,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="108" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -6615,31 +6630,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="108" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3</v>
@@ -6648,31 +6663,31 @@
         <v>1</v>
       </c>
       <c r="D33" s="108" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -6681,28 +6696,28 @@
         <v>4</v>
       </c>
       <c r="D34" s="108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -6711,27 +6726,27 @@
         <v>4</v>
       </c>
       <c r="D35" s="108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -6740,28 +6755,28 @@
         <v>1</v>
       </c>
       <c r="D36" s="108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -6770,27 +6785,27 @@
         <v>1</v>
       </c>
       <c r="D37" s="108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3</v>
@@ -6799,28 +6814,28 @@
         <v>1</v>
       </c>
       <c r="D38" s="108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>3</v>
@@ -6829,27 +6844,27 @@
         <v>1</v>
       </c>
       <c r="D39" s="108" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -6858,31 +6873,31 @@
         <v>4</v>
       </c>
       <c r="D40" s="108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -6891,33 +6906,33 @@
         <v>4</v>
       </c>
       <c r="D41" s="108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -6926,31 +6941,31 @@
         <v>1</v>
       </c>
       <c r="D42" s="108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
@@ -6959,33 +6974,33 @@
         <v>1</v>
       </c>
       <c r="D43" s="108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3</v>
@@ -6994,31 +7009,31 @@
         <v>1</v>
       </c>
       <c r="D44" s="108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3</v>
@@ -7027,33 +7042,33 @@
         <v>1</v>
       </c>
       <c r="D45" s="108" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -7062,28 +7077,28 @@
         <v>4</v>
       </c>
       <c r="D46" s="108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -7092,27 +7107,27 @@
         <v>4</v>
       </c>
       <c r="D47" s="108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2</v>
@@ -7124,18 +7139,18 @@
         <v>24</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2</v>
@@ -7147,21 +7162,21 @@
         <v>25</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>3</v>
@@ -7173,18 +7188,18 @@
         <v>26</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>3</v>
@@ -7196,21 +7211,21 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -7222,18 +7237,18 @@
         <v>22</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
@@ -7245,21 +7260,21 @@
         <v>23</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
@@ -7271,18 +7286,18 @@
         <v>24</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -7294,21 +7309,21 @@
         <v>25</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -7320,18 +7335,18 @@
         <v>26</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -7343,21 +7358,21 @@
         <v>27</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -7369,18 +7384,18 @@
         <v>38</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -7392,21 +7407,21 @@
         <v>39</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -7418,18 +7433,18 @@
         <v>40</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
@@ -7441,21 +7456,21 @@
         <v>41</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -7467,18 +7482,18 @@
         <v>28</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
@@ -7490,21 +7505,21 @@
         <v>29</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1</v>
@@ -7516,18 +7531,18 @@
         <v>42</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1</v>
@@ -7539,21 +7554,21 @@
         <v>43</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2</v>
@@ -7565,18 +7580,18 @@
         <v>34</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -7588,21 +7603,21 @@
         <v>35</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -7614,18 +7629,18 @@
         <v>44</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -7637,16 +7652,16 @@
         <v>45</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7663,13 +7678,13 @@
         <v>28</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,19 +7701,19 @@
         <v>29</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7715,13 +7730,13 @@
         <v>42</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7738,16 +7753,16 @@
         <v>43</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7764,13 +7779,13 @@
         <v>34</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7787,16 +7802,16 @@
         <v>35</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7813,13 +7828,13 @@
         <v>44</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7836,21 +7851,21 @@
         <v>45</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -7862,18 +7877,18 @@
         <v>46</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>4</v>
@@ -7885,21 +7900,21 @@
         <v>47</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>5</v>
@@ -7911,18 +7926,18 @@
         <v>48</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -7934,21 +7949,21 @@
         <v>49</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -7960,18 +7975,18 @@
         <v>50</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -7983,21 +7998,21 @@
         <v>51</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -8009,18 +8024,18 @@
         <v>52</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>7</v>
@@ -8032,21 +8047,21 @@
         <v>53</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>4</v>
@@ -8058,21 +8073,21 @@
         <v>46</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -8084,21 +8099,21 @@
         <v>47</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -8110,18 +8125,18 @@
         <v>48</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>5</v>
@@ -8133,21 +8148,21 @@
         <v>49</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>6</v>
@@ -8159,18 +8174,18 @@
         <v>50</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>6</v>
@@ -8182,21 +8197,21 @@
         <v>51</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>7</v>
@@ -8208,18 +8223,18 @@
         <v>52</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>7</v>
@@ -8231,21 +8246,21 @@
         <v>53</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>4</v>
@@ -8257,18 +8272,18 @@
         <v>54</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
@@ -8280,21 +8295,21 @@
         <v>55</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -8306,18 +8321,18 @@
         <v>56</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>5</v>
@@ -8329,21 +8344,21 @@
         <v>57</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>6</v>
@@ -8355,18 +8370,18 @@
         <v>58</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>6</v>
@@ -8378,21 +8393,21 @@
         <v>59</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>7</v>
@@ -8404,18 +8419,18 @@
         <v>60</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>7</v>
@@ -8427,21 +8442,21 @@
         <v>61</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>4</v>
@@ -8453,21 +8468,21 @@
         <v>54</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>4</v>
@@ -8479,21 +8494,21 @@
         <v>55</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>5</v>
@@ -8505,18 +8520,18 @@
         <v>56</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>5</v>
@@ -8528,21 +8543,21 @@
         <v>57</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>6</v>
@@ -8554,18 +8569,18 @@
         <v>58</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
@@ -8577,21 +8592,21 @@
         <v>59</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>7</v>
@@ -8603,18 +8618,18 @@
         <v>60</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>7</v>
@@ -8626,21 +8641,21 @@
         <v>61</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>4</v>
@@ -8652,18 +8667,18 @@
         <v>62</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -8675,21 +8690,21 @@
         <v>63</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -8701,18 +8716,18 @@
         <v>64</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>5</v>
@@ -8724,21 +8739,21 @@
         <v>65</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>6</v>
@@ -8750,18 +8765,18 @@
         <v>66</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
@@ -8773,21 +8788,21 @@
         <v>67</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>7</v>
@@ -8799,18 +8814,18 @@
         <v>68</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>7</v>
@@ -8822,21 +8837,21 @@
         <v>69</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>4</v>
@@ -8848,21 +8863,21 @@
         <v>62</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>4</v>
@@ -8874,21 +8889,21 @@
         <v>63</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>5</v>
@@ -8900,18 +8915,18 @@
         <v>64</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>5</v>
@@ -8923,21 +8938,21 @@
         <v>65</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>6</v>
@@ -8949,18 +8964,18 @@
         <v>66</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
@@ -8972,21 +8987,21 @@
         <v>67</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>7</v>
@@ -8998,18 +9013,18 @@
         <v>68</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -9021,21 +9036,21 @@
         <v>69</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>4</v>
@@ -9047,18 +9062,18 @@
         <v>70</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>4</v>
@@ -9070,21 +9085,21 @@
         <v>71</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>5</v>
@@ -9096,18 +9111,18 @@
         <v>72</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -9119,21 +9134,21 @@
         <v>73</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -9145,18 +9160,18 @@
         <v>74</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>6</v>
@@ -9168,21 +9183,21 @@
         <v>75</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>7</v>
@@ -9194,18 +9209,18 @@
         <v>76</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>7</v>
@@ -9217,21 +9232,21 @@
         <v>77</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>4</v>
@@ -9243,21 +9258,21 @@
         <v>70</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -9269,21 +9284,21 @@
         <v>71</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>5</v>
@@ -9295,18 +9310,18 @@
         <v>72</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -9318,21 +9333,21 @@
         <v>73</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
@@ -9344,18 +9359,18 @@
         <v>74</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>6</v>
@@ -9367,21 +9382,21 @@
         <v>75</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>7</v>
@@ -9393,18 +9408,18 @@
         <v>76</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>7</v>
@@ -9416,21 +9431,21 @@
         <v>77</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>4</v>
@@ -9442,21 +9457,21 @@
         <v>78</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -9468,24 +9483,24 @@
         <v>79</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>5</v>
@@ -9497,21 +9512,21 @@
         <v>80</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>5</v>
@@ -9523,24 +9538,24 @@
         <v>81</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>6</v>
@@ -9552,21 +9567,21 @@
         <v>82</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -9578,24 +9593,24 @@
         <v>83</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -9607,21 +9622,21 @@
         <v>84</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>7</v>
@@ -9633,24 +9648,24 @@
         <v>85</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>4</v>
@@ -9662,18 +9677,18 @@
         <v>78</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>4</v>
@@ -9685,21 +9700,21 @@
         <v>79</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>5</v>
@@ -9711,18 +9726,18 @@
         <v>80</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>5</v>
@@ -9734,21 +9749,21 @@
         <v>81</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>6</v>
@@ -9760,18 +9775,18 @@
         <v>82</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6</v>
@@ -9783,21 +9798,21 @@
         <v>83</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>7</v>
@@ -9809,18 +9824,18 @@
         <v>84</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>7</v>
@@ -9832,21 +9847,21 @@
         <v>85</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>4</v>
@@ -9858,18 +9873,18 @@
         <v>86</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>4</v>
@@ -9881,21 +9896,21 @@
         <v>87</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>5</v>
@@ -9907,18 +9922,18 @@
         <v>88</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>5</v>
@@ -9930,21 +9945,21 @@
         <v>89</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>6</v>
@@ -9956,18 +9971,18 @@
         <v>90</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>6</v>
@@ -9979,21 +9994,21 @@
         <v>91</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>7</v>
@@ -10005,18 +10020,18 @@
         <v>92</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>7</v>
@@ -10028,21 +10043,21 @@
         <v>93</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>4</v>
@@ -10054,18 +10069,18 @@
         <v>86</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>4</v>
@@ -10077,21 +10092,21 @@
         <v>87</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>5</v>
@@ -10103,18 +10118,18 @@
         <v>88</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>5</v>
@@ -10126,21 +10141,21 @@
         <v>89</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>6</v>
@@ -10152,18 +10167,18 @@
         <v>90</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>6</v>
@@ -10175,21 +10190,21 @@
         <v>91</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>7</v>
@@ -10201,18 +10216,18 @@
         <v>92</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B173" s="109" t="n">
         <v>7</v>
@@ -10225,17 +10240,17 @@
         <v>93</v>
       </c>
       <c r="F173" s="109" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G173" s="109" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H173" s="109"/>
       <c r="I173" s="109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J173" s="109" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10252,13 +10267,13 @@
         <v>94</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10275,16 +10290,16 @@
         <v>95</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10301,13 +10316,13 @@
         <v>96</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10324,16 +10339,16 @@
         <v>97</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10350,13 +10365,13 @@
         <v>98</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10373,16 +10388,16 @@
         <v>99</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10399,13 +10414,13 @@
         <v>100</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10422,16 +10437,16 @@
         <v>101</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10448,13 +10463,13 @@
         <v>102</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10471,19 +10486,19 @@
         <v>103</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10500,13 +10515,13 @@
         <v>104</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10523,19 +10538,19 @@
         <v>105</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10552,13 +10567,13 @@
         <v>106</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10575,19 +10590,19 @@
         <v>107</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10604,13 +10619,13 @@
         <v>108</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10627,19 +10642,19 @@
         <v>109</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10656,13 +10671,13 @@
         <v>110</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10679,24 +10694,24 @@
         <v>111</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>13</v>
@@ -10708,22 +10723,22 @@
         <v>113</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10740,13 +10755,13 @@
         <v>114</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10763,24 +10778,24 @@
         <v>115</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I194" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="J194" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="L194" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="J194" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="L194" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>20</v>
@@ -10792,18 +10807,18 @@
         <v>116</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>20</v>
@@ -10815,19 +10830,19 @@
         <v>117</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10844,13 +10859,13 @@
         <v>118</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10867,16 +10882,16 @@
         <v>119</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10893,16 +10908,16 @@
         <v>120</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10919,19 +10934,19 @@
         <v>121</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10948,13 +10963,13 @@
         <v>122</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10971,16 +10986,16 @@
         <v>123</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10997,16 +11012,16 @@
         <v>124</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11023,19 +11038,19 @@
         <v>125</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11052,13 +11067,13 @@
         <v>126</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11075,16 +11090,16 @@
         <v>127</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11101,16 +11116,16 @@
         <v>128</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11127,19 +11142,19 @@
         <v>129</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11156,13 +11171,13 @@
         <v>130</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11179,16 +11194,16 @@
         <v>131</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11205,13 +11220,13 @@
         <v>134</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11228,16 +11243,16 @@
         <v>135</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11254,13 +11269,13 @@
         <v>132</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11277,16 +11292,16 @@
         <v>133</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11303,13 +11318,13 @@
         <v>136</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11326,16 +11341,16 @@
         <v>137</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11352,13 +11367,13 @@
         <v>142</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11375,13 +11390,13 @@
         <v>143</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11398,16 +11413,16 @@
         <v>138</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11424,19 +11439,19 @@
         <v>139</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11453,16 +11468,16 @@
         <v>144</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11479,16 +11494,16 @@
         <v>145</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11505,19 +11520,19 @@
         <v>147</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11534,16 +11549,16 @@
         <v>148</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11560,16 +11575,16 @@
         <v>149</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11586,16 +11601,16 @@
         <v>149</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11612,10 +11627,10 @@
         <v>146</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11632,10 +11647,10 @@
         <v>150</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11652,19 +11667,19 @@
         <v>151</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L229" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11681,19 +11696,19 @@
         <v>152</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L230" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11710,16 +11725,16 @@
         <v>153</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11736,21 +11751,21 @@
         <v>154</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>24</v>
@@ -11762,21 +11777,21 @@
         <v>155</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>25</v>
@@ -11788,21 +11803,21 @@
         <v>156</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>25</v>
@@ -11814,21 +11829,21 @@
         <v>157</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>25</v>
@@ -11840,16 +11855,16 @@
         <v>158</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11860,13 +11875,13 @@
         <v>159</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11883,16 +11898,16 @@
         <v>165</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11909,19 +11924,19 @@
         <v>166</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11938,16 +11953,16 @@
         <v>167</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11964,19 +11979,19 @@
         <v>168</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11993,16 +12008,16 @@
         <v>169</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12019,19 +12034,19 @@
         <v>170</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12048,16 +12063,16 @@
         <v>171</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12074,19 +12089,19 @@
         <v>172</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12097,10 +12112,10 @@
         <v>145</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12111,10 +12126,10 @@
         <v>116</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12131,16 +12146,16 @@
         <v>161</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12154,16 +12169,16 @@
         <v>4</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12177,16 +12192,16 @@
         <v>4</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12203,16 +12218,16 @@
         <v>160</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12229,16 +12244,16 @@
         <v>162</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12255,16 +12270,16 @@
         <v>163</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12281,16 +12296,16 @@
         <v>164</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12307,19 +12322,19 @@
         <v>182</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L255" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12336,16 +12351,16 @@
         <v>183</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12362,13 +12377,13 @@
         <v>184</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12385,13 +12400,13 @@
         <v>185</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12408,16 +12423,16 @@
         <v>186</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12428,31 +12443,31 @@
         <v>191</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M260" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N260" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O260" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P260" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q260" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R260" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12469,13 +12484,13 @@
         <v>187</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I261" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M261" s="0" t="n">
         <v>1</v>
@@ -12510,13 +12525,13 @@
         <v>188</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I262" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M262" s="0" t="n">
         <v>1</v>
@@ -12551,13 +12566,13 @@
         <v>190</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M263" s="0" t="n">
         <v>5</v>
@@ -12592,13 +12607,13 @@
         <v>194</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M264" s="0" t="n">
         <v>5</v>
@@ -12621,7 +12636,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>301</v>
+        <v>112</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>21</v>
@@ -12633,13 +12648,13 @@
         <v>195</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M265" s="0" t="n">
         <v>1</v>
@@ -12662,7 +12677,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>301</v>
+        <v>112</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>21</v>
@@ -12674,13 +12689,13 @@
         <v>196</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M266" s="0" t="n">
         <v>1</v>
@@ -12703,7 +12718,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>301</v>
+        <v>112</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>26</v>
@@ -12715,18 +12730,36 @@
         <v>197</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="M267" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N267" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O267" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P267" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q267" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R267" s="0" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>301</v>
+        <v>112</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>26</v>
@@ -12738,13 +12771,642 @@
         <v>198</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J268" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="M268" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N268" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O268" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P268" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q268" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="R268" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B269" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I269" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="M269" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N269" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O269" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P269" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q269" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="R269" s="0" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B270" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E270" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I270" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="M270" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N270" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O270" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P270" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q270" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="R270" s="0" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B271" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E271" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I271" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="M271" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N271" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B272" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E272" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="F272" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I272" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="M272" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O272" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P272" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q272" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R272" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E273" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I273" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="M273" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O273" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P273" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q273" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="R273" s="0" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I274" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="M274" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N274" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O274" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P274" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B275" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E275" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I275" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="M275" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N275" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O275" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P275" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q275" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="R275" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B276" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I276" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="M276" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N276" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O276" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P276" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q276" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="R276" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B277" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I277" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="M277" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N277" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O277" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P277" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q277" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="R277" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B278" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="F278" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I278" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="M278" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N278" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O278" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P278" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q278" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R278" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="S278" s="0" t="n">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B279" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E279" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I279" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="M279" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N279" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O279" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P279" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q279" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R279" s="0" t="n">
         <v>300</v>
+      </c>
+      <c r="S279" s="0" t="n">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B280" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I280" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="M280" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N280" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O280" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P280" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q280" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R280" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="S280" s="0" t="n">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B281" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I281" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="M281" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N281" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O281" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P281" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q281" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R281" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="S281" s="0" t="n">
+        <v>7374</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I282" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="M282" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N282" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O282" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="P282" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q282" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R282" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="S282" s="0" t="n">
+        <v>6554</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I283" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="M283" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N283" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O283" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="P283" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q283" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R283" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S283" s="0" t="n">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I284" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="M284" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N284" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O284" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P284" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q284" s="0" t="n">
+        <v>840</v>
+      </c>
+      <c r="R284" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="S284" s="0" t="n">
+        <v>8318</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12777,24 +13439,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -12829,21 +13491,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -12855,7 +13517,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
@@ -12867,7 +13529,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -12913,7 +13575,7 @@
         <v>0.0100401606425703</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="319">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -943,6 +943,9 @@
   </si>
   <si>
     <t xml:space="preserve">9x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/03/11</t>
   </si>
   <si>
     <t xml:space="preserve">SC1</t>
@@ -5507,9 +5510,9 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A285" activeCellId="0" sqref="A285"/>
+      <selection pane="bottomLeft" activeCell="A289" activeCellId="0" sqref="A289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13407,6 +13410,170 @@
       </c>
       <c r="S284" s="0" t="n">
         <v>8318</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B285" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E285" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I285" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="M285" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N285" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O285" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P285" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q285" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R285" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="S285" s="0" t="n">
+        <v>7374</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I286" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="M286" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N286" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O286" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P286" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q286" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R286" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="S286" s="0" t="n">
+        <v>5648</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B287" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I287" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="M287" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N287" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O287" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P287" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q287" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="R287" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S287" s="0" t="n">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B288" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="F288" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I288" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="M288" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N288" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O288" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P288" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q288" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R288" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S288" s="0" t="n">
+        <v>2700</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13439,24 +13606,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -13491,21 +13658,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="103" t="s">
         <v>314</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -13517,7 +13684,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
@@ -13529,7 +13696,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="326">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -393,6 +393,24 @@
     <t xml:space="preserve">2021/03/10</t>
   </si>
   <si>
+    <t xml:space="preserve">2021/03/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/03/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/03/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/03/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/03/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/03/25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -945,7 +963,40 @@
     <t xml:space="preserve">9x</t>
   </si>
   <si>
-    <t xml:space="preserve">2021/03/11</t>
+    <t xml:space="preserve">failed (second layer vDOC=20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">failed (4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> layer vDOC=20)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SC1</t>
@@ -995,7 +1046,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1058,6 +1109,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2493,7 +2552,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E67" activeCellId="0" sqref="E67"/>
+      <selection pane="bottomLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4912,6 +4971,9 @@
       <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E67" s="0" t="s">
+        <v>122</v>
+      </c>
       <c r="G67" s="0" t="n">
         <v>2.375</v>
       </c>
@@ -4926,43 +4988,189 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="96" t="str">
+      <c r="A68" s="96" t="n">
         <f aca="false">IF(ISBLANK(H68),"", H68/(G68+L68)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
-      </c>
-      <c r="C68" s="103" t="str">
+        <v>4.40740740740741</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C68" s="103" t="n">
         <f aca="false">IF(ISBLANK(H68),"",H68/G68*(G$13/H$13))</f>
-        <v/>
+        <v>5.21052631578947</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="96" t="str">
+      <c r="A69" s="96" t="n">
         <f aca="false">IF(ISBLANK(H69),"", H69/(G69+L69)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
+        <v>2.60583941605839</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C69" s="103" t="n">
+        <f aca="false">IF(ISBLANK(H69),"",H69/G69*(G$13/H$13))</f>
+        <v>3.06185567010309</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="96" t="str">
+      <c r="A70" s="96" t="n">
         <f aca="false">IF(ISBLANK(H70),"", H70/(G70+L70)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
+        <v>1.72463768115942</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C70" s="103" t="n">
+        <f aca="false">IF(ISBLANK(H70),"",H70/G70*(G$13/H$13))</f>
+        <v>2.02040816326531</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="96" t="str">
+      <c r="A71" s="96" t="n">
         <f aca="false">IF(ISBLANK(H71),"", H71/(G71+L71)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
+        <v>4.40740740740741</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C71" s="103" t="n">
+        <f aca="false">IF(ISBLANK(H71),"",H71/G71*(G$13/H$13))</f>
+        <v>5.21052631578947</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="96" t="str">
+      <c r="A72" s="96" t="n">
         <f aca="false">IF(ISBLANK(H72),"", H72/(G72+L72)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
+        <v>3.5</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C72" s="103" t="n">
+        <f aca="false">IF(ISBLANK(H72),"",H72/G72*(G$13/H$13))</f>
+        <v>4.125</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="96" t="str">
+      <c r="A73" s="96" t="n">
         <f aca="false">IF(ISBLANK(H73),"", H73/(G73+L73)*(($G$13+$L$13)/$H$13))</f>
-        <v/>
+        <v>1.72463768115942</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C73" s="103" t="n">
+        <f aca="false">IF(ISBLANK(H73),"",H73/G73*(G$13/H$13))</f>
+        <v>2.02040816326531</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4970,16 +5178,28 @@
         <f aca="false">IF(ISBLANK(H74),"", H74/(G74+L74)*(($G$13+$L$13)/$H$13))</f>
         <v/>
       </c>
+      <c r="C74" s="103" t="str">
+        <f aca="false">IF(ISBLANK(H74),"",H74/G74*(G$13/H$13))</f>
+        <v/>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="96" t="str">
         <f aca="false">IF(ISBLANK(H75),"", H75/(G75+L75)*(($G$13+$L$13)/$H$13))</f>
         <v/>
       </c>
+      <c r="C75" s="103" t="str">
+        <f aca="false">IF(ISBLANK(H75),"",H75/G75*(G$13/H$13))</f>
+        <v/>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="96" t="str">
         <f aca="false">IF(ISBLANK(H76),"", H76/(G76+L76)*(($G$13+$L$13)/$H$13))</f>
+        <v/>
+      </c>
+      <c r="C76" s="103" t="str">
+        <f aca="false">IF(ISBLANK(H76),"",H76/G76*(G$13/H$13))</f>
         <v/>
       </c>
     </row>
@@ -5087,406 +5307,406 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="S1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="U1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="W1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Y1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AA1" s="101" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>150</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>160</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>170</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>180</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>190</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>200</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>250</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>300</v>
       </c>
       <c r="W2" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>350</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>400</v>
       </c>
       <c r="AA2" s="101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>160</v>
       </c>
       <c r="I3" s="101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>170</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>180</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>190</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>200</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>250</v>
       </c>
       <c r="S3" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>300</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>350</v>
       </c>
       <c r="W3" s="101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>400</v>
       </c>
       <c r="Y3" s="101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>500</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5510,9 +5730,9 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A289" activeCellId="0" sqref="A289"/>
+      <selection pane="bottomLeft" activeCell="A312" activeCellId="0" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5541,31 +5761,31 @@
         <v>51</v>
       </c>
       <c r="D1" s="108" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,31 +5799,31 @@
         <v>0</v>
       </c>
       <c r="D2" s="108" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -5612,13 +5832,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="108" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5628,13 +5848,13 @@
         <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,13 +5868,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5664,13 +5884,13 @@
         <v>60</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,13 +5904,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5700,13 +5920,13 @@
         <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,13 +5940,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5736,13 +5956,13 @@
         <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,13 +5976,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5772,18 +5992,18 @@
         <v>60</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -5792,33 +6012,33 @@
         <v>2</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -5827,33 +6047,33 @@
         <v>2</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -5862,13 +6082,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5878,18 +6098,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -5898,13 +6118,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5914,18 +6134,18 @@
         <v>20</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -5934,33 +6154,33 @@
         <v>2</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -5969,33 +6189,33 @@
         <v>2</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -6004,13 +6224,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="108" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6020,18 +6240,18 @@
         <v>60</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -6040,13 +6260,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6056,13 +6276,13 @@
         <v>60</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6076,13 +6296,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6092,13 +6312,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,13 +6332,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6128,13 +6348,13 @@
         <v>20</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6148,13 +6368,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="108" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6164,13 +6384,13 @@
         <v>20</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,13 +6404,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6200,13 +6420,13 @@
         <v>20</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,13 +6440,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="108" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6236,13 +6456,13 @@
         <v>20</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,13 +6476,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="108" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6272,13 +6492,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6292,13 +6512,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6308,13 +6528,13 @@
         <v>20</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,13 +6548,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6344,13 +6564,13 @@
         <v>20</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6364,13 +6584,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6380,13 +6600,13 @@
         <v>20</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6400,33 +6620,33 @@
         <v>4</v>
       </c>
       <c r="D25" s="108" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -6435,33 +6655,33 @@
         <v>4</v>
       </c>
       <c r="D26" s="108" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -6470,30 +6690,30 @@
         <v>4</v>
       </c>
       <c r="D27" s="108" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -6502,31 +6722,31 @@
         <v>4</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -6535,30 +6755,30 @@
         <v>4</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -6567,31 +6787,31 @@
         <v>1</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -6600,31 +6820,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="108" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -6633,31 +6853,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="108" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3</v>
@@ -6666,31 +6886,31 @@
         <v>1</v>
       </c>
       <c r="D33" s="108" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -6699,28 +6919,28 @@
         <v>4</v>
       </c>
       <c r="D34" s="108" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -6729,27 +6949,27 @@
         <v>4</v>
       </c>
       <c r="D35" s="108" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -6758,28 +6978,28 @@
         <v>1</v>
       </c>
       <c r="D36" s="108" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -6788,27 +7008,27 @@
         <v>1</v>
       </c>
       <c r="D37" s="108" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3</v>
@@ -6817,28 +7037,28 @@
         <v>1</v>
       </c>
       <c r="D38" s="108" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>3</v>
@@ -6847,27 +7067,27 @@
         <v>1</v>
       </c>
       <c r="D39" s="108" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -6876,31 +7096,31 @@
         <v>4</v>
       </c>
       <c r="D40" s="108" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -6909,33 +7129,33 @@
         <v>4</v>
       </c>
       <c r="D41" s="108" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -6944,31 +7164,31 @@
         <v>1</v>
       </c>
       <c r="D42" s="108" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
@@ -6977,33 +7197,33 @@
         <v>1</v>
       </c>
       <c r="D43" s="108" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3</v>
@@ -7012,31 +7232,31 @@
         <v>1</v>
       </c>
       <c r="D44" s="108" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3</v>
@@ -7045,33 +7265,33 @@
         <v>1</v>
       </c>
       <c r="D45" s="108" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -7080,28 +7300,28 @@
         <v>4</v>
       </c>
       <c r="D46" s="108" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -7110,27 +7330,27 @@
         <v>4</v>
       </c>
       <c r="D47" s="108" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2</v>
@@ -7142,18 +7362,18 @@
         <v>24</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2</v>
@@ -7165,21 +7385,21 @@
         <v>25</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>3</v>
@@ -7191,18 +7411,18 @@
         <v>26</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>3</v>
@@ -7214,21 +7434,21 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -7240,18 +7460,18 @@
         <v>22</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
@@ -7263,21 +7483,21 @@
         <v>23</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
@@ -7289,18 +7509,18 @@
         <v>24</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -7312,21 +7532,21 @@
         <v>25</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -7338,18 +7558,18 @@
         <v>26</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -7361,21 +7581,21 @@
         <v>27</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -7387,18 +7607,18 @@
         <v>38</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -7410,21 +7630,21 @@
         <v>39</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -7436,18 +7656,18 @@
         <v>40</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
@@ -7459,21 +7679,21 @@
         <v>41</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -7485,18 +7705,18 @@
         <v>28</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
@@ -7508,21 +7728,21 @@
         <v>29</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1</v>
@@ -7534,18 +7754,18 @@
         <v>42</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1</v>
@@ -7557,21 +7777,21 @@
         <v>43</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2</v>
@@ -7583,18 +7803,18 @@
         <v>34</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -7606,21 +7826,21 @@
         <v>35</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -7632,18 +7852,18 @@
         <v>44</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -7655,16 +7875,16 @@
         <v>45</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,13 +7901,13 @@
         <v>28</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7704,19 +7924,19 @@
         <v>29</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7733,13 +7953,13 @@
         <v>42</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7756,16 +7976,16 @@
         <v>43</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7782,13 +8002,13 @@
         <v>34</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7805,16 +8025,16 @@
         <v>35</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7831,13 +8051,13 @@
         <v>44</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7854,21 +8074,21 @@
         <v>45</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -7880,18 +8100,18 @@
         <v>46</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>4</v>
@@ -7903,21 +8123,21 @@
         <v>47</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>5</v>
@@ -7929,18 +8149,18 @@
         <v>48</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -7952,21 +8172,21 @@
         <v>49</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -7978,18 +8198,18 @@
         <v>50</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -8001,21 +8221,21 @@
         <v>51</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -8027,18 +8247,18 @@
         <v>52</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>7</v>
@@ -8050,21 +8270,21 @@
         <v>53</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>4</v>
@@ -8076,21 +8296,21 @@
         <v>46</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -8102,21 +8322,21 @@
         <v>47</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -8128,18 +8348,18 @@
         <v>48</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>5</v>
@@ -8151,21 +8371,21 @@
         <v>49</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>6</v>
@@ -8177,18 +8397,18 @@
         <v>50</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>6</v>
@@ -8200,21 +8420,21 @@
         <v>51</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>7</v>
@@ -8226,18 +8446,18 @@
         <v>52</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>7</v>
@@ -8249,21 +8469,21 @@
         <v>53</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>4</v>
@@ -8275,18 +8495,18 @@
         <v>54</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
@@ -8298,21 +8518,21 @@
         <v>55</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -8324,18 +8544,18 @@
         <v>56</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>5</v>
@@ -8347,21 +8567,21 @@
         <v>57</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>6</v>
@@ -8373,18 +8593,18 @@
         <v>58</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>6</v>
@@ -8396,21 +8616,21 @@
         <v>59</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>7</v>
@@ -8422,18 +8642,18 @@
         <v>60</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>7</v>
@@ -8445,21 +8665,21 @@
         <v>61</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>4</v>
@@ -8471,21 +8691,21 @@
         <v>54</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>4</v>
@@ -8497,21 +8717,21 @@
         <v>55</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>5</v>
@@ -8523,18 +8743,18 @@
         <v>56</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>5</v>
@@ -8546,21 +8766,21 @@
         <v>57</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>6</v>
@@ -8572,18 +8792,18 @@
         <v>58</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
@@ -8595,21 +8815,21 @@
         <v>59</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>7</v>
@@ -8621,18 +8841,18 @@
         <v>60</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>7</v>
@@ -8644,21 +8864,21 @@
         <v>61</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>4</v>
@@ -8670,18 +8890,18 @@
         <v>62</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -8693,21 +8913,21 @@
         <v>63</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -8719,18 +8939,18 @@
         <v>64</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>5</v>
@@ -8742,21 +8962,21 @@
         <v>65</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>6</v>
@@ -8768,18 +8988,18 @@
         <v>66</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
@@ -8791,21 +9011,21 @@
         <v>67</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>7</v>
@@ -8817,18 +9037,18 @@
         <v>68</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>7</v>
@@ -8840,21 +9060,21 @@
         <v>69</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>4</v>
@@ -8866,21 +9086,21 @@
         <v>62</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>4</v>
@@ -8892,21 +9112,21 @@
         <v>63</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>5</v>
@@ -8918,18 +9138,18 @@
         <v>64</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>5</v>
@@ -8941,21 +9161,21 @@
         <v>65</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>6</v>
@@ -8967,18 +9187,18 @@
         <v>66</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
@@ -8990,21 +9210,21 @@
         <v>67</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>7</v>
@@ -9016,18 +9236,18 @@
         <v>68</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -9039,21 +9259,21 @@
         <v>69</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>4</v>
@@ -9065,18 +9285,18 @@
         <v>70</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>4</v>
@@ -9088,21 +9308,21 @@
         <v>71</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>5</v>
@@ -9114,18 +9334,18 @@
         <v>72</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -9137,21 +9357,21 @@
         <v>73</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -9163,18 +9383,18 @@
         <v>74</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>6</v>
@@ -9186,21 +9406,21 @@
         <v>75</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>7</v>
@@ -9212,18 +9432,18 @@
         <v>76</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>7</v>
@@ -9235,21 +9455,21 @@
         <v>77</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>4</v>
@@ -9261,21 +9481,21 @@
         <v>70</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -9287,21 +9507,21 @@
         <v>71</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>5</v>
@@ -9313,18 +9533,18 @@
         <v>72</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -9336,21 +9556,21 @@
         <v>73</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
@@ -9362,18 +9582,18 @@
         <v>74</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>6</v>
@@ -9385,21 +9605,21 @@
         <v>75</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>7</v>
@@ -9411,18 +9631,18 @@
         <v>76</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>7</v>
@@ -9434,21 +9654,21 @@
         <v>77</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>4</v>
@@ -9460,21 +9680,21 @@
         <v>78</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -9486,24 +9706,24 @@
         <v>79</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>5</v>
@@ -9515,21 +9735,21 @@
         <v>80</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>5</v>
@@ -9541,24 +9761,24 @@
         <v>81</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>6</v>
@@ -9570,21 +9790,21 @@
         <v>82</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -9596,24 +9816,24 @@
         <v>83</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -9625,21 +9845,21 @@
         <v>84</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>7</v>
@@ -9651,24 +9871,24 @@
         <v>85</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>4</v>
@@ -9680,18 +9900,18 @@
         <v>78</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>4</v>
@@ -9703,21 +9923,21 @@
         <v>79</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>5</v>
@@ -9729,18 +9949,18 @@
         <v>80</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>5</v>
@@ -9752,21 +9972,21 @@
         <v>81</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>6</v>
@@ -9778,18 +9998,18 @@
         <v>82</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6</v>
@@ -9801,21 +10021,21 @@
         <v>83</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>7</v>
@@ -9827,18 +10047,18 @@
         <v>84</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>7</v>
@@ -9850,21 +10070,21 @@
         <v>85</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>4</v>
@@ -9876,18 +10096,18 @@
         <v>86</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>4</v>
@@ -9899,21 +10119,21 @@
         <v>87</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>5</v>
@@ -9925,18 +10145,18 @@
         <v>88</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>5</v>
@@ -9948,21 +10168,21 @@
         <v>89</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>6</v>
@@ -9974,18 +10194,18 @@
         <v>90</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>6</v>
@@ -9997,21 +10217,21 @@
         <v>91</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>7</v>
@@ -10023,18 +10243,18 @@
         <v>92</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>7</v>
@@ -10046,21 +10266,21 @@
         <v>93</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>4</v>
@@ -10072,18 +10292,18 @@
         <v>86</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>4</v>
@@ -10095,21 +10315,21 @@
         <v>87</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>5</v>
@@ -10121,18 +10341,18 @@
         <v>88</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>5</v>
@@ -10144,21 +10364,21 @@
         <v>89</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>6</v>
@@ -10170,18 +10390,18 @@
         <v>90</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>6</v>
@@ -10193,21 +10413,21 @@
         <v>91</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>7</v>
@@ -10219,18 +10439,18 @@
         <v>92</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="109" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B173" s="109" t="n">
         <v>7</v>
@@ -10243,17 +10463,17 @@
         <v>93</v>
       </c>
       <c r="F173" s="109" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G173" s="109" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H173" s="109"/>
       <c r="I173" s="109" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J173" s="109" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10270,13 +10490,13 @@
         <v>94</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10293,16 +10513,16 @@
         <v>95</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10319,13 +10539,13 @@
         <v>96</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10342,16 +10562,16 @@
         <v>97</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10368,13 +10588,13 @@
         <v>98</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10391,16 +10611,16 @@
         <v>99</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10417,13 +10637,13 @@
         <v>100</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10440,16 +10660,16 @@
         <v>101</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10466,13 +10686,13 @@
         <v>102</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10489,19 +10709,19 @@
         <v>103</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10518,13 +10738,13 @@
         <v>104</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10541,19 +10761,19 @@
         <v>105</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10570,13 +10790,13 @@
         <v>106</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10593,19 +10813,19 @@
         <v>107</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10622,13 +10842,13 @@
         <v>108</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10645,19 +10865,19 @@
         <v>109</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10674,13 +10894,13 @@
         <v>110</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10697,24 +10917,24 @@
         <v>111</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>13</v>
@@ -10726,22 +10946,22 @@
         <v>113</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10758,13 +10978,13 @@
         <v>114</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10781,24 +11001,24 @@
         <v>115</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>20</v>
@@ -10810,18 +11030,18 @@
         <v>116</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>20</v>
@@ -10833,19 +11053,19 @@
         <v>117</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10862,13 +11082,13 @@
         <v>118</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10885,16 +11105,16 @@
         <v>119</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10911,16 +11131,16 @@
         <v>120</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10937,19 +11157,19 @@
         <v>121</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10966,13 +11186,13 @@
         <v>122</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10989,16 +11209,16 @@
         <v>123</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11015,16 +11235,16 @@
         <v>124</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11041,19 +11261,19 @@
         <v>125</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11070,13 +11290,13 @@
         <v>126</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11093,16 +11313,16 @@
         <v>127</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11119,16 +11339,16 @@
         <v>128</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11145,19 +11365,19 @@
         <v>129</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11174,13 +11394,13 @@
         <v>130</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11197,16 +11417,16 @@
         <v>131</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11223,13 +11443,13 @@
         <v>134</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11246,16 +11466,16 @@
         <v>135</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11272,13 +11492,13 @@
         <v>132</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11295,16 +11515,16 @@
         <v>133</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11321,13 +11541,13 @@
         <v>136</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11344,16 +11564,16 @@
         <v>137</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11370,13 +11590,13 @@
         <v>142</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11393,13 +11613,13 @@
         <v>143</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11416,16 +11636,16 @@
         <v>138</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11442,19 +11662,19 @@
         <v>139</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11471,16 +11691,16 @@
         <v>144</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11497,16 +11717,16 @@
         <v>145</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11523,19 +11743,19 @@
         <v>147</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11552,16 +11772,16 @@
         <v>148</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11578,16 +11798,16 @@
         <v>149</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11604,16 +11824,16 @@
         <v>149</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11630,10 +11850,10 @@
         <v>146</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11650,10 +11870,10 @@
         <v>150</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11670,19 +11890,19 @@
         <v>151</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I229" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="J229" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K229" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="L229" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="J229" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="K229" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="L229" s="0" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11699,19 +11919,19 @@
         <v>152</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I230" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="J230" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K230" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="L230" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="J230" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="K230" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="L230" s="0" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11728,16 +11948,16 @@
         <v>153</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11754,21 +11974,21 @@
         <v>154</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>24</v>
@@ -11780,21 +12000,21 @@
         <v>155</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>25</v>
@@ -11806,21 +12026,21 @@
         <v>156</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>25</v>
@@ -11832,21 +12052,21 @@
         <v>157</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>25</v>
@@ -11858,16 +12078,16 @@
         <v>158</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11878,13 +12098,13 @@
         <v>159</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11901,16 +12121,16 @@
         <v>165</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11927,19 +12147,19 @@
         <v>166</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11956,16 +12176,16 @@
         <v>167</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11982,19 +12202,19 @@
         <v>168</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12011,16 +12231,16 @@
         <v>169</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12037,19 +12257,19 @@
         <v>170</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12066,16 +12286,16 @@
         <v>171</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12092,19 +12312,19 @@
         <v>172</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12115,10 +12335,10 @@
         <v>145</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12129,10 +12349,10 @@
         <v>116</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12149,16 +12369,16 @@
         <v>161</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12172,16 +12392,16 @@
         <v>4</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12195,16 +12415,16 @@
         <v>4</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12221,16 +12441,16 @@
         <v>160</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I251" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="J251" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K251" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="J251" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="K251" s="0" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12247,16 +12467,16 @@
         <v>162</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I252" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="J252" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K252" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="J252" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="K252" s="0" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12273,16 +12493,16 @@
         <v>163</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I253" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="J253" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K253" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="J253" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="K253" s="0" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12299,16 +12519,16 @@
         <v>164</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I254" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="J254" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K254" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="J254" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="K254" s="0" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12325,19 +12545,19 @@
         <v>182</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L255" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12354,16 +12574,16 @@
         <v>183</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12380,13 +12600,13 @@
         <v>184</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12403,13 +12623,13 @@
         <v>185</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12426,16 +12646,16 @@
         <v>186</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12446,31 +12666,31 @@
         <v>191</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M260" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N260" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="O260" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P260" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q260" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="R260" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12487,13 +12707,13 @@
         <v>187</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I261" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M261" s="0" t="n">
         <v>1</v>
@@ -12528,13 +12748,13 @@
         <v>188</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I262" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M262" s="0" t="n">
         <v>1</v>
@@ -12569,13 +12789,13 @@
         <v>190</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M263" s="0" t="n">
         <v>5</v>
@@ -12610,13 +12830,13 @@
         <v>194</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M264" s="0" t="n">
         <v>5</v>
@@ -12651,13 +12871,13 @@
         <v>195</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M265" s="0" t="n">
         <v>1</v>
@@ -12692,13 +12912,13 @@
         <v>196</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M266" s="0" t="n">
         <v>1</v>
@@ -12733,13 +12953,13 @@
         <v>197</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M267" s="0" t="n">
         <v>5</v>
@@ -12774,13 +12994,13 @@
         <v>198</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M268" s="0" t="n">
         <v>5</v>
@@ -12815,10 +13035,10 @@
         <v>200</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M269" s="0" t="n">
         <v>2</v>
@@ -12853,10 +13073,10 @@
         <v>203</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I270" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M270" s="0" t="n">
         <v>2</v>
@@ -12891,10 +13111,10 @@
         <v>185</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I271" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M271" s="0" t="n">
         <v>4</v>
@@ -12917,10 +13137,10 @@
         <v>204</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I272" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M272" s="0" t="n">
         <v>1</v>
@@ -12955,10 +13175,10 @@
         <v>205</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M273" s="0" t="n">
         <v>1</v>
@@ -12993,10 +13213,10 @@
         <v>206</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I274" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M274" s="0" t="n">
         <v>2</v>
@@ -13025,10 +13245,10 @@
         <v>199</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I275" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M275" s="0" t="n">
         <v>4</v>
@@ -13063,10 +13283,10 @@
         <v>201</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I276" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M276" s="0" t="n">
         <v>4</v>
@@ -13101,10 +13321,10 @@
         <v>192</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I277" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M277" s="0" t="n">
         <v>4</v>
@@ -13139,10 +13359,10 @@
         <v>207</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I278" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M278" s="0" t="n">
         <v>2</v>
@@ -13180,10 +13400,10 @@
         <v>208</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I279" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M279" s="0" t="n">
         <v>3</v>
@@ -13221,10 +13441,10 @@
         <v>209</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M280" s="0" t="n">
         <v>3</v>
@@ -13262,10 +13482,10 @@
         <v>210</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I281" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M281" s="0" t="n">
         <v>3</v>
@@ -13303,10 +13523,10 @@
         <v>211</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I282" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M282" s="0" t="n">
         <v>3</v>
@@ -13344,10 +13564,10 @@
         <v>212</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I283" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M283" s="0" t="n">
         <v>4</v>
@@ -13385,10 +13605,10 @@
         <v>213</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I284" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M284" s="0" t="n">
         <v>3</v>
@@ -13414,7 +13634,7 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>33</v>
@@ -13426,10 +13646,10 @@
         <v>217</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I285" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M285" s="0" t="n">
         <v>3</v>
@@ -13455,7 +13675,7 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>35</v>
@@ -13467,10 +13687,10 @@
         <v>214</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I286" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M286" s="0" t="n">
         <v>5</v>
@@ -13496,7 +13716,7 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>35</v>
@@ -13508,10 +13728,10 @@
         <v>215</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I287" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M287" s="0" t="n">
         <v>5</v>
@@ -13537,7 +13757,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>35</v>
@@ -13549,10 +13769,10 @@
         <v>216</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I288" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M288" s="0" t="n">
         <v>5</v>
@@ -13574,6 +13794,946 @@
       </c>
       <c r="S288" s="0" t="n">
         <v>2700</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B289" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E289" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="F289" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I289" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K289" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="M289" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N289" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O289" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P289" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q289" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R289" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S289" s="0" t="n">
+        <v>-7201</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B290" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E290" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="F290" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I290" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M290" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N290" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O290" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P290" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q290" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R290" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S290" s="0" t="n">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B291" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E291" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I291" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="K291" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="M291" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N291" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O291" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P291" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q291" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R291" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S291" s="0" t="n">
+        <v>-7201</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B292" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E292" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I292" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M292" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N292" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O292" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P292" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q292" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R292" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S292" s="0" t="n">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E293" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I293" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M293" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N293" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O293" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P293" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q293" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R293" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S293" s="0" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E294" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I294" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M294" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N294" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O294" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P294" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q294" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R294" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S294" s="0" t="n">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B295" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E295" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I295" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M295" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N295" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O295" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P295" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q295" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R295" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S295" s="0" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E296" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I296" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M296" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N296" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O296" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P296" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q296" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R296" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S296" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B297" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E297" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="F297" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I297" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M297" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N297" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O297" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P297" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q297" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R297" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="S297" s="0" t="n">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B298" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C298" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E298" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="F298" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I298" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M298" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N298" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O298" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P298" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q298" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R298" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="S298" s="0" t="n">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B299" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E299" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="F299" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I299" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M299" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N299" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O299" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P299" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q299" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R299" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S299" s="0" t="n">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B300" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E300" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="F300" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I300" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M300" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N300" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O300" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P300" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q300" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R300" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S300" s="0" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B301" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C301" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E301" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="F301" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I301" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M301" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N301" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O301" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P301" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q301" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R301" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="S301" s="0" t="n">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B302" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C302" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E302" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="F302" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I302" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="M302" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N302" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O302" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P302" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q302" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R302" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="S302" s="0" t="n">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B303" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C303" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E303" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I303" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M303" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N303" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O303" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P303" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q303" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R303" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S303" s="0" t="n">
+        <v>-2923</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B304" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E304" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="F304" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I304" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M304" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N304" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O304" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P304" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q304" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R304" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S304" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B305" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C305" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E305" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="F305" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I305" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="M305" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N305" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O305" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P305" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q305" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R305" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S305" s="0" t="n">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B306" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C306" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E306" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="F306" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I306" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M306" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N306" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O306" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P306" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q306" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R306" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S306" s="0" t="n">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B307" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E307" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="F307" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I307" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="M307" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N307" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O307" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P307" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q307" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R307" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S307" s="0" t="n">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B308" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C308" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E308" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="F308" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I308" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="M308" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N308" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O308" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P308" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q308" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R308" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S308" s="0" t="n">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B309" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C309" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E309" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="F309" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I309" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M309" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N309" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O309" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="P309" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q309" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R309" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="S309" s="0" t="n">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B310" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C310" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E310" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="F310" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I310" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="M310" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N310" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O310" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P310" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q310" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R310" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S310" s="0" t="n">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B311" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C311" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E311" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="F311" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I311" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="M311" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N311" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O311" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P311" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q311" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="R311" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="S311" s="0" t="n">
+        <v>2535</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13606,24 +14766,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -13658,21 +14818,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -13684,7 +14844,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
@@ -13696,7 +14856,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -13742,7 +14902,7 @@
         <v>0.0100401606425703</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="328">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -279,6 +279,9 @@
     <t xml:space="preserve">2020/11/26</t>
   </si>
   <si>
+    <t xml:space="preserve">NEW GOOD RECIPES</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-BuOH+1-PrOH (1:1)</t>
   </si>
   <si>
@@ -388,6 +391,9 @@
   </si>
   <si>
     <t xml:space="preserve">2021/03/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECIPES FOR EMMA</t>
   </si>
   <si>
     <t xml:space="preserve">2021/03/10</t>
@@ -1039,12 +1045,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1774,7 +1781,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1790,7 +1797,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1806,22 +1813,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1887,7 +1894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1897,10 +1904,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.640625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="73.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="71.1"/>
@@ -1908,7 +1914,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,7 +2539,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2543,19 +2548,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
+      <selection pane="bottomLeft" activeCell="M65" activeCellId="0" sqref="M65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="96" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.36"/>
@@ -2569,7 +2574,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="36.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,6 +3112,9 @@
       <c r="L18" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="M18" s="0" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="96" t="n">
@@ -3168,7 +3175,7 @@
         <v>83</v>
       </c>
       <c r="F20" s="101" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>9.9</v>
@@ -3208,7 +3215,7 @@
         <v>83</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>9.9</v>
@@ -3245,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" s="101" t="s">
         <v>82</v>
@@ -3285,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" s="101" t="s">
         <v>82</v>
@@ -3309,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F24" s="101" t="s">
         <v>82</v>
@@ -3352,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="101" t="s">
         <v>82</v>
@@ -3395,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F26" s="101" t="s">
         <v>82</v>
@@ -3438,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F27" s="101" t="s">
         <v>82</v>
@@ -3481,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F28" s="101" t="s">
         <v>82</v>
@@ -3524,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F29" s="101" t="s">
         <v>82</v>
@@ -3567,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F30" s="101" t="s">
         <v>82</v>
@@ -3610,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F31" s="101" t="s">
         <v>82</v>
@@ -3653,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F32" s="101" t="s">
         <v>82</v>
@@ -3696,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,7 +3722,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F33" s="101" t="s">
         <v>82</v>
@@ -3739,10 +3746,10 @@
         <v>4</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,7 +3768,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" s="101" t="s">
         <v>82</v>
@@ -3785,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F35" s="101" t="s">
         <v>82</v>
@@ -3828,7 +3835,7 @@
         <v>2</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F36" s="101" t="s">
         <v>82</v>
@@ -3871,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3890,7 +3897,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F37" s="101" t="s">
         <v>82</v>
@@ -3914,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F38" s="101" t="s">
         <v>82</v>
@@ -3957,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F39" s="101" t="s">
         <v>82</v>
@@ -4016,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F40" s="101" t="s">
         <v>82</v>
@@ -4056,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F41" s="101" t="s">
         <v>82</v>
@@ -4096,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F42" s="101" t="s">
         <v>82</v>
@@ -4136,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F43" s="101" t="s">
         <v>82</v>
@@ -4176,7 +4183,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F44" s="101" t="s">
         <v>82</v>
@@ -4216,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F45" s="101" t="s">
         <v>82</v>
@@ -4256,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F46" s="101" t="s">
         <v>82</v>
@@ -4280,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" s="101" t="s">
         <v>82</v>
@@ -4323,10 +4330,10 @@
         <v>3</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,7 +4352,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="101" t="s">
         <v>82</v>
@@ -4385,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F49" s="101" t="s">
         <v>82</v>
@@ -4425,7 +4432,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F50" s="101" t="s">
         <v>82</v>
@@ -4465,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>2.45</v>
@@ -4496,7 +4503,7 @@
         <v>7</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>4.95</v>
@@ -4527,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>2.375</v>
@@ -4558,7 +4565,7 @@
         <v>8</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>4.95</v>
@@ -4589,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>2.375</v>
@@ -4620,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>2.45</v>
@@ -4651,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>2.4</v>
@@ -4682,7 +4689,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>2.4</v>
@@ -4713,7 +4720,7 @@
         <v>9</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>4.95</v>
@@ -4744,7 +4751,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>2.45</v>
@@ -4775,7 +4782,7 @@
         <v>6</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>2.4</v>
@@ -4809,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>2.4</v>
@@ -4821,7 +4828,7 @@
         <v>0.025</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>1</v>
@@ -4843,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F63" s="99"/>
       <c r="G63" s="99" t="n">
@@ -4857,7 +4864,7 @@
         <v>0.025</v>
       </c>
       <c r="K63" s="99" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L63" s="99" t="n">
         <v>1</v>
@@ -4879,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>2.45</v>
@@ -4892,6 +4899,9 @@
       </c>
       <c r="L64" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>2.425</v>
@@ -4941,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>2.4</v>
@@ -4972,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>2.375</v>
@@ -5003,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>2.375</v>
@@ -5034,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>2.425</v>
@@ -5065,7 +5075,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G70" s="0" t="n">
         <v>2.45</v>
@@ -5096,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>2.375</v>
@@ -5127,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>2.4</v>
@@ -5158,7 +5168,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>2.45</v>
@@ -5254,7 +5264,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5263,7 +5273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5273,9 +5283,8 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="101" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
@@ -5302,411 +5311,410 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="101" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="101" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="U1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Y1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AA1" s="101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>150</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>160</v>
       </c>
       <c r="K2" s="101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>170</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>180</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>190</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>200</v>
       </c>
       <c r="S2" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>250</v>
       </c>
       <c r="U2" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>300</v>
       </c>
       <c r="W2" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>350</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>400</v>
       </c>
       <c r="AA2" s="101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>100</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>160</v>
       </c>
       <c r="I3" s="101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>170</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>180</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>190</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>200</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>250</v>
       </c>
       <c r="S3" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>300</v>
       </c>
       <c r="U3" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>350</v>
       </c>
       <c r="W3" s="101" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>400</v>
       </c>
       <c r="Y3" s="101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>400</v>
       </c>
       <c r="K4" s="101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>400</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>500</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5714,7 +5722,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5723,19 +5731,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A312" activeCellId="0" sqref="A312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.77"/>
@@ -5746,8 +5754,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,31 +5768,31 @@
         <v>51</v>
       </c>
       <c r="D1" s="108" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5799,31 +5806,31 @@
         <v>0</v>
       </c>
       <c r="D2" s="108" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -5832,13 +5839,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="108" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5848,13 +5855,13 @@
         <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5868,13 +5875,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5884,13 +5891,13 @@
         <v>60</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,13 +5911,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5920,13 +5927,13 @@
         <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,13 +5947,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5956,13 +5963,13 @@
         <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,13 +5983,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -5992,18 +5999,18 @@
         <v>60</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -6012,33 +6019,33 @@
         <v>2</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -6047,33 +6054,33 @@
         <v>2</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -6082,13 +6089,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6098,18 +6105,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -6118,13 +6125,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6134,18 +6141,18 @@
         <v>20</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -6154,33 +6161,33 @@
         <v>2</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -6189,33 +6196,33 @@
         <v>2</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -6224,13 +6231,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="108" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6240,18 +6247,18 @@
         <v>60</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -6260,13 +6267,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6276,13 +6283,13 @@
         <v>60</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6296,13 +6303,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6312,13 +6319,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6332,13 +6339,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6348,13 +6355,13 @@
         <v>20</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,13 +6375,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="108" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6384,13 +6391,13 @@
         <v>20</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,13 +6411,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6420,13 +6427,13 @@
         <v>20</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6440,13 +6447,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="108" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6456,13 +6463,13 @@
         <v>20</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,13 +6483,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="108" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6492,13 +6499,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6512,13 +6519,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6528,13 +6535,13 @@
         <v>20</v>
       </c>
       <c r="I22" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6548,13 +6555,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6564,13 +6571,13 @@
         <v>20</v>
       </c>
       <c r="I23" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6584,13 +6591,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">FALSE()</f>
@@ -6600,13 +6607,13 @@
         <v>20</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6620,33 +6627,33 @@
         <v>4</v>
       </c>
       <c r="D25" s="108" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -6655,33 +6662,33 @@
         <v>4</v>
       </c>
       <c r="D26" s="108" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F26" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -6690,30 +6697,30 @@
         <v>4</v>
       </c>
       <c r="D27" s="108" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -6722,31 +6729,31 @@
         <v>4</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -6755,30 +6762,30 @@
         <v>4</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -6787,31 +6794,31 @@
         <v>1</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -6820,31 +6827,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="108" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>19</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3</v>
@@ -6853,31 +6860,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="108" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3</v>
@@ -6886,31 +6893,31 @@
         <v>1</v>
       </c>
       <c r="D33" s="108" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>21</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -6919,28 +6926,28 @@
         <v>4</v>
       </c>
       <c r="D34" s="108" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -6949,27 +6956,27 @@
         <v>4</v>
       </c>
       <c r="D35" s="108" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -6978,28 +6985,28 @@
         <v>1</v>
       </c>
       <c r="D36" s="108" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -7008,27 +7015,27 @@
         <v>1</v>
       </c>
       <c r="D37" s="108" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3</v>
@@ -7037,28 +7044,28 @@
         <v>1</v>
       </c>
       <c r="D38" s="108" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>3</v>
@@ -7067,27 +7074,27 @@
         <v>1</v>
       </c>
       <c r="D39" s="108" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -7096,31 +7103,31 @@
         <v>4</v>
       </c>
       <c r="D40" s="108" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -7129,33 +7136,33 @@
         <v>4</v>
       </c>
       <c r="D41" s="108" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -7164,31 +7171,31 @@
         <v>1</v>
       </c>
       <c r="D42" s="108" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
@@ -7197,33 +7204,33 @@
         <v>1</v>
       </c>
       <c r="D43" s="108" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F43" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L43" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3</v>
@@ -7232,31 +7239,31 @@
         <v>1</v>
       </c>
       <c r="D44" s="108" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G44" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3</v>
@@ -7265,33 +7272,33 @@
         <v>1</v>
       </c>
       <c r="D45" s="108" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>37</v>
       </c>
       <c r="F45" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="L45" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -7300,28 +7307,28 @@
         <v>4</v>
       </c>
       <c r="D46" s="108" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -7330,27 +7337,27 @@
         <v>4</v>
       </c>
       <c r="D47" s="108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2</v>
@@ -7362,18 +7369,18 @@
         <v>24</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2</v>
@@ -7385,21 +7392,21 @@
         <v>25</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>3</v>
@@ -7411,18 +7418,18 @@
         <v>26</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>3</v>
@@ -7434,21 +7441,21 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -7460,18 +7467,18 @@
         <v>22</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
@@ -7483,21 +7490,21 @@
         <v>23</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
@@ -7509,18 +7516,18 @@
         <v>24</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -7532,21 +7539,21 @@
         <v>25</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3</v>
@@ -7558,18 +7565,18 @@
         <v>26</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -7581,21 +7588,21 @@
         <v>27</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -7607,18 +7614,18 @@
         <v>38</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -7630,21 +7637,21 @@
         <v>39</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
@@ -7656,18 +7663,18 @@
         <v>40</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
@@ -7679,21 +7686,21 @@
         <v>41</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
@@ -7705,18 +7712,18 @@
         <v>28</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
@@ -7728,21 +7735,21 @@
         <v>29</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1</v>
@@ -7754,18 +7761,18 @@
         <v>42</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1</v>
@@ -7777,21 +7784,21 @@
         <v>43</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2</v>
@@ -7803,18 +7810,18 @@
         <v>34</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -7826,21 +7833,21 @@
         <v>35</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -7852,18 +7859,18 @@
         <v>44</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2</v>
@@ -7875,16 +7882,16 @@
         <v>45</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7901,13 +7908,13 @@
         <v>28</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7924,19 +7931,19 @@
         <v>29</v>
       </c>
       <c r="F71" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L71" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7953,13 +7960,13 @@
         <v>42</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7976,16 +7983,16 @@
         <v>43</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8002,13 +8009,13 @@
         <v>34</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8025,16 +8032,16 @@
         <v>35</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8051,13 +8058,13 @@
         <v>44</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8074,21 +8081,21 @@
         <v>45</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -8100,18 +8107,18 @@
         <v>46</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>4</v>
@@ -8123,21 +8130,21 @@
         <v>47</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>5</v>
@@ -8149,18 +8156,18 @@
         <v>48</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -8172,21 +8179,21 @@
         <v>49</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -8198,18 +8205,18 @@
         <v>50</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>6</v>
@@ -8221,21 +8228,21 @@
         <v>51</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>7</v>
@@ -8247,18 +8254,18 @@
         <v>52</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>7</v>
@@ -8270,21 +8277,21 @@
         <v>53</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>4</v>
@@ -8296,21 +8303,21 @@
         <v>46</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -8322,21 +8329,21 @@
         <v>47</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -8348,18 +8355,18 @@
         <v>48</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>5</v>
@@ -8371,21 +8378,21 @@
         <v>49</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>6</v>
@@ -8397,18 +8404,18 @@
         <v>50</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>6</v>
@@ -8420,21 +8427,21 @@
         <v>51</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>7</v>
@@ -8446,18 +8453,18 @@
         <v>52</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>7</v>
@@ -8469,21 +8476,21 @@
         <v>53</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>4</v>
@@ -8495,18 +8502,18 @@
         <v>54</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
@@ -8518,21 +8525,21 @@
         <v>55</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -8544,18 +8551,18 @@
         <v>56</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>5</v>
@@ -8567,21 +8574,21 @@
         <v>57</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>6</v>
@@ -8593,18 +8600,18 @@
         <v>58</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>6</v>
@@ -8616,21 +8623,21 @@
         <v>59</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>7</v>
@@ -8642,18 +8649,18 @@
         <v>60</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>7</v>
@@ -8665,21 +8672,21 @@
         <v>61</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>4</v>
@@ -8691,21 +8698,21 @@
         <v>54</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>4</v>
@@ -8717,21 +8724,21 @@
         <v>55</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>5</v>
@@ -8743,18 +8750,18 @@
         <v>56</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>5</v>
@@ -8766,21 +8773,21 @@
         <v>57</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>6</v>
@@ -8792,18 +8799,18 @@
         <v>58</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
@@ -8815,21 +8822,21 @@
         <v>59</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>7</v>
@@ -8841,18 +8848,18 @@
         <v>60</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>7</v>
@@ -8864,21 +8871,21 @@
         <v>61</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>4</v>
@@ -8890,18 +8897,18 @@
         <v>62</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -8913,21 +8920,21 @@
         <v>63</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -8939,18 +8946,18 @@
         <v>64</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>5</v>
@@ -8962,21 +8969,21 @@
         <v>65</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>6</v>
@@ -8988,18 +8995,18 @@
         <v>66</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>6</v>
@@ -9011,21 +9018,21 @@
         <v>67</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>7</v>
@@ -9037,18 +9044,18 @@
         <v>68</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>7</v>
@@ -9060,21 +9067,21 @@
         <v>69</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>4</v>
@@ -9086,21 +9093,21 @@
         <v>62</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>4</v>
@@ -9112,21 +9119,21 @@
         <v>63</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>5</v>
@@ -9138,18 +9145,18 @@
         <v>64</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>5</v>
@@ -9161,21 +9168,21 @@
         <v>65</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>6</v>
@@ -9187,18 +9194,18 @@
         <v>66</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>6</v>
@@ -9210,21 +9217,21 @@
         <v>67</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>7</v>
@@ -9236,18 +9243,18 @@
         <v>68</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -9259,21 +9266,21 @@
         <v>69</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>4</v>
@@ -9285,18 +9292,18 @@
         <v>70</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>4</v>
@@ -9308,21 +9315,21 @@
         <v>71</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>5</v>
@@ -9334,18 +9341,18 @@
         <v>72</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -9357,21 +9364,21 @@
         <v>73</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -9383,18 +9390,18 @@
         <v>74</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>6</v>
@@ -9406,21 +9413,21 @@
         <v>75</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>7</v>
@@ -9432,18 +9439,18 @@
         <v>76</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>7</v>
@@ -9455,21 +9462,21 @@
         <v>77</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>4</v>
@@ -9481,21 +9488,21 @@
         <v>70</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L134" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -9507,21 +9514,21 @@
         <v>71</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>5</v>
@@ -9533,18 +9540,18 @@
         <v>72</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -9556,21 +9563,21 @@
         <v>73</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
@@ -9582,18 +9589,18 @@
         <v>74</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>6</v>
@@ -9605,21 +9612,21 @@
         <v>75</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>7</v>
@@ -9631,18 +9638,18 @@
         <v>76</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>7</v>
@@ -9654,21 +9661,21 @@
         <v>77</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>4</v>
@@ -9680,21 +9687,21 @@
         <v>78</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -9706,24 +9713,24 @@
         <v>79</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>5</v>
@@ -9735,21 +9742,21 @@
         <v>80</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>5</v>
@@ -9761,24 +9768,24 @@
         <v>81</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>6</v>
@@ -9790,21 +9797,21 @@
         <v>82</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -9816,24 +9823,24 @@
         <v>83</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -9845,21 +9852,21 @@
         <v>84</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>7</v>
@@ -9871,24 +9878,24 @@
         <v>85</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>4</v>
@@ -9900,18 +9907,18 @@
         <v>78</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>4</v>
@@ -9923,21 +9930,21 @@
         <v>79</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>5</v>
@@ -9949,18 +9956,18 @@
         <v>80</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>5</v>
@@ -9972,21 +9979,21 @@
         <v>81</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>6</v>
@@ -9998,18 +10005,18 @@
         <v>82</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6</v>
@@ -10021,21 +10028,21 @@
         <v>83</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>7</v>
@@ -10047,18 +10054,18 @@
         <v>84</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>7</v>
@@ -10070,21 +10077,21 @@
         <v>85</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>4</v>
@@ -10096,18 +10103,18 @@
         <v>86</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>4</v>
@@ -10119,21 +10126,21 @@
         <v>87</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>5</v>
@@ -10145,18 +10152,18 @@
         <v>88</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>5</v>
@@ -10168,21 +10175,21 @@
         <v>89</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>6</v>
@@ -10194,18 +10201,18 @@
         <v>90</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>6</v>
@@ -10217,21 +10224,21 @@
         <v>91</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>7</v>
@@ -10243,18 +10250,18 @@
         <v>92</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>7</v>
@@ -10266,21 +10273,21 @@
         <v>93</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>4</v>
@@ -10292,18 +10299,18 @@
         <v>86</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>4</v>
@@ -10315,21 +10322,21 @@
         <v>87</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>5</v>
@@ -10341,18 +10348,18 @@
         <v>88</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>5</v>
@@ -10364,21 +10371,21 @@
         <v>89</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>6</v>
@@ -10390,18 +10397,18 @@
         <v>90</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>6</v>
@@ -10413,21 +10420,21 @@
         <v>91</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>7</v>
@@ -10439,18 +10446,18 @@
         <v>92</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="109" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B173" s="109" t="n">
         <v>7</v>
@@ -10463,17 +10470,17 @@
         <v>93</v>
       </c>
       <c r="F173" s="109" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G173" s="109" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H173" s="109"/>
       <c r="I173" s="109" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J173" s="109" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10490,13 +10497,13 @@
         <v>94</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10513,16 +10520,16 @@
         <v>95</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10539,13 +10546,13 @@
         <v>96</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10562,16 +10569,16 @@
         <v>97</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10588,13 +10595,13 @@
         <v>98</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10611,16 +10618,16 @@
         <v>99</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10637,13 +10644,13 @@
         <v>100</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10660,16 +10667,16 @@
         <v>101</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10686,13 +10693,13 @@
         <v>102</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10709,19 +10716,19 @@
         <v>103</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L183" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10738,13 +10745,13 @@
         <v>104</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10761,19 +10768,19 @@
         <v>105</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10790,13 +10797,13 @@
         <v>106</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10813,19 +10820,19 @@
         <v>107</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L187" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10842,13 +10849,13 @@
         <v>108</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10865,19 +10872,19 @@
         <v>109</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10894,13 +10901,13 @@
         <v>110</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10917,24 +10924,24 @@
         <v>111</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L191" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>13</v>
@@ -10946,27 +10953,27 @@
         <v>113</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L192" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>17</v>
@@ -10978,18 +10985,18 @@
         <v>114</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>17</v>
@@ -11001,24 +11008,24 @@
         <v>115</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>20</v>
@@ -11030,18 +11037,18 @@
         <v>116</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>20</v>
@@ -11053,24 +11060,24 @@
         <v>117</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>21</v>
@@ -11082,18 +11089,18 @@
         <v>118</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>21</v>
@@ -11105,21 +11112,21 @@
         <v>119</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>21</v>
@@ -11131,21 +11138,21 @@
         <v>120</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>21</v>
@@ -11157,24 +11164,24 @@
         <v>121</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>22</v>
@@ -11186,18 +11193,18 @@
         <v>122</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>22</v>
@@ -11209,21 +11216,21 @@
         <v>123</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>22</v>
@@ -11235,21 +11242,21 @@
         <v>124</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>22</v>
@@ -11261,24 +11268,24 @@
         <v>125</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>17</v>
@@ -11290,18 +11297,18 @@
         <v>126</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>17</v>
@@ -11313,21 +11320,21 @@
         <v>127</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>17</v>
@@ -11339,21 +11346,21 @@
         <v>128</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>17</v>
@@ -11365,24 +11372,24 @@
         <v>129</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>21</v>
@@ -11394,18 +11401,18 @@
         <v>130</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>21</v>
@@ -11417,21 +11424,21 @@
         <v>131</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>21</v>
@@ -11443,18 +11450,18 @@
         <v>134</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>21</v>
@@ -11466,21 +11473,21 @@
         <v>135</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>21</v>
@@ -11492,18 +11499,18 @@
         <v>132</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>21</v>
@@ -11515,21 +11522,21 @@
         <v>133</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>21</v>
@@ -11541,18 +11548,18 @@
         <v>136</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>21</v>
@@ -11564,21 +11571,21 @@
         <v>137</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>21</v>
@@ -11590,18 +11597,18 @@
         <v>142</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>21</v>
@@ -11613,18 +11620,18 @@
         <v>143</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>23</v>
@@ -11636,21 +11643,21 @@
         <v>138</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>23</v>
@@ -11662,24 +11669,24 @@
         <v>139</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>23</v>
@@ -11691,21 +11698,21 @@
         <v>144</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>23</v>
@@ -11717,21 +11724,21 @@
         <v>145</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>23</v>
@@ -11743,24 +11750,24 @@
         <v>147</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L223" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>23</v>
@@ -11772,21 +11779,21 @@
         <v>148</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>21</v>
@@ -11798,21 +11805,21 @@
         <v>149</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>21</v>
@@ -11824,21 +11831,21 @@
         <v>149</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>21</v>
@@ -11850,15 +11857,15 @@
         <v>146</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>23</v>
@@ -11870,15 +11877,15 @@
         <v>150</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>23</v>
@@ -11890,24 +11897,24 @@
         <v>151</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L229" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>24</v>
@@ -11919,24 +11926,24 @@
         <v>152</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L230" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>24</v>
@@ -11948,21 +11955,21 @@
         <v>153</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>24</v>
@@ -11974,21 +11981,21 @@
         <v>154</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>24</v>
@@ -12000,21 +12007,21 @@
         <v>155</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>25</v>
@@ -12026,21 +12033,21 @@
         <v>156</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>25</v>
@@ -12052,21 +12059,21 @@
         <v>157</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>25</v>
@@ -12078,38 +12085,38 @@
         <v>158</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>159</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>26</v>
@@ -12121,21 +12128,21 @@
         <v>165</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>26</v>
@@ -12147,24 +12154,24 @@
         <v>166</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>26</v>
@@ -12176,21 +12183,21 @@
         <v>167</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>24</v>
@@ -12202,24 +12209,24 @@
         <v>168</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>24</v>
@@ -12231,21 +12238,21 @@
         <v>169</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>25</v>
@@ -12257,24 +12264,24 @@
         <v>170</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>25</v>
@@ -12286,21 +12293,21 @@
         <v>171</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>25</v>
@@ -12312,52 +12319,52 @@
         <v>172</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>145</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>116</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>27</v>
@@ -12369,21 +12376,21 @@
         <v>161</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>24</v>
@@ -12392,21 +12399,21 @@
         <v>4</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>24</v>
@@ -12415,21 +12422,21 @@
         <v>4</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>23</v>
@@ -12441,21 +12448,21 @@
         <v>160</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>23</v>
@@ -12467,21 +12474,21 @@
         <v>162</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>23</v>
@@ -12493,21 +12500,21 @@
         <v>163</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>23</v>
@@ -12519,21 +12526,21 @@
         <v>164</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>25</v>
@@ -12545,24 +12552,24 @@
         <v>182</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L255" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>23</v>
@@ -12574,21 +12581,21 @@
         <v>183</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>23</v>
@@ -12600,18 +12607,18 @@
         <v>184</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>23</v>
@@ -12623,18 +12630,18 @@
         <v>185</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>23</v>
@@ -12646,56 +12653,56 @@
         <v>186</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E260" s="0" t="n">
         <v>191</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M260" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N260" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O260" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P260" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q260" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="R260" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>21</v>
@@ -12707,13 +12714,13 @@
         <v>187</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I261" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M261" s="0" t="n">
         <v>1</v>
@@ -12736,7 +12743,7 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>21</v>
@@ -12748,13 +12755,13 @@
         <v>188</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I262" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M262" s="0" t="n">
         <v>1</v>
@@ -12777,7 +12784,7 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>26</v>
@@ -12789,13 +12796,13 @@
         <v>190</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M263" s="0" t="n">
         <v>5</v>
@@ -12818,7 +12825,7 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>26</v>
@@ -12830,13 +12837,13 @@
         <v>194</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M264" s="0" t="n">
         <v>5</v>
@@ -12859,7 +12866,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>21</v>
@@ -12871,13 +12878,13 @@
         <v>195</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M265" s="0" t="n">
         <v>1</v>
@@ -12900,7 +12907,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>21</v>
@@ -12912,13 +12919,13 @@
         <v>196</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M266" s="0" t="n">
         <v>1</v>
@@ -12941,7 +12948,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>26</v>
@@ -12953,13 +12960,13 @@
         <v>197</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M267" s="0" t="n">
         <v>5</v>
@@ -12982,7 +12989,7 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>26</v>
@@ -12994,13 +13001,13 @@
         <v>198</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M268" s="0" t="n">
         <v>5</v>
@@ -13023,7 +13030,7 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>25</v>
@@ -13035,10 +13042,10 @@
         <v>200</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M269" s="0" t="n">
         <v>2</v>
@@ -13061,7 +13068,7 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>25</v>
@@ -13073,10 +13080,10 @@
         <v>203</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I270" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M270" s="0" t="n">
         <v>2</v>
@@ -13099,7 +13106,7 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>24</v>
@@ -13111,10 +13118,10 @@
         <v>185</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I271" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M271" s="0" t="n">
         <v>4</v>
@@ -13125,7 +13132,7 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>21</v>
@@ -13137,10 +13144,10 @@
         <v>204</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I272" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M272" s="0" t="n">
         <v>1</v>
@@ -13163,7 +13170,7 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>21</v>
@@ -13175,10 +13182,10 @@
         <v>205</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M273" s="0" t="n">
         <v>1</v>
@@ -13201,7 +13208,7 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>25</v>
@@ -13213,10 +13220,10 @@
         <v>206</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I274" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M274" s="0" t="n">
         <v>2</v>
@@ -13233,7 +13240,7 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>24</v>
@@ -13245,10 +13252,10 @@
         <v>199</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I275" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M275" s="0" t="n">
         <v>4</v>
@@ -13271,7 +13278,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>29</v>
@@ -13283,10 +13290,10 @@
         <v>201</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I276" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M276" s="0" t="n">
         <v>4</v>
@@ -13309,7 +13316,7 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>30</v>
@@ -13321,10 +13328,10 @@
         <v>192</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I277" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M277" s="0" t="n">
         <v>4</v>
@@ -13347,7 +13354,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>32</v>
@@ -13359,10 +13366,10 @@
         <v>207</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I278" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M278" s="0" t="n">
         <v>2</v>
@@ -13388,7 +13395,7 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>33</v>
@@ -13400,10 +13407,10 @@
         <v>208</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I279" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M279" s="0" t="n">
         <v>3</v>
@@ -13429,7 +13436,7 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>33</v>
@@ -13441,10 +13448,10 @@
         <v>209</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M280" s="0" t="n">
         <v>3</v>
@@ -13470,7 +13477,7 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>33</v>
@@ -13482,10 +13489,10 @@
         <v>210</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I281" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M281" s="0" t="n">
         <v>3</v>
@@ -13511,7 +13518,7 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>33</v>
@@ -13523,10 +13530,10 @@
         <v>211</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I282" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M282" s="0" t="n">
         <v>3</v>
@@ -13552,7 +13559,7 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>34</v>
@@ -13564,10 +13571,10 @@
         <v>212</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I283" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M283" s="0" t="n">
         <v>4</v>
@@ -13593,7 +13600,7 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>33</v>
@@ -13605,10 +13612,10 @@
         <v>213</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I284" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M284" s="0" t="n">
         <v>3</v>
@@ -13634,7 +13641,7 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>33</v>
@@ -13646,10 +13653,10 @@
         <v>217</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I285" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M285" s="0" t="n">
         <v>3</v>
@@ -13675,7 +13682,7 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>35</v>
@@ -13687,10 +13694,10 @@
         <v>214</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I286" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M286" s="0" t="n">
         <v>5</v>
@@ -13716,7 +13723,7 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>35</v>
@@ -13728,10 +13735,10 @@
         <v>215</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I287" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M287" s="0" t="n">
         <v>5</v>
@@ -13757,7 +13764,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>35</v>
@@ -13769,10 +13776,10 @@
         <v>216</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I288" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M288" s="0" t="n">
         <v>5</v>
@@ -13798,7 +13805,7 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>32</v>
@@ -13810,13 +13817,13 @@
         <v>219</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I289" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K289" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M289" s="0" t="n">
         <v>2</v>
@@ -13842,7 +13849,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>32</v>
@@ -13854,10 +13861,10 @@
         <v>220</v>
       </c>
       <c r="F290" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I290" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M290" s="0" t="n">
         <v>2</v>
@@ -13883,7 +13890,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>32</v>
@@ -13895,13 +13902,13 @@
         <v>221</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I291" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M291" s="0" t="n">
         <v>2</v>
@@ -13927,7 +13934,7 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>32</v>
@@ -13939,10 +13946,10 @@
         <v>222</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I292" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M292" s="0" t="n">
         <v>2</v>
@@ -13968,7 +13975,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>33</v>
@@ -13980,10 +13987,10 @@
         <v>223</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I293" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M293" s="0" t="n">
         <v>3</v>
@@ -14009,7 +14016,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>34</v>
@@ -14018,10 +14025,10 @@
         <v>224</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I294" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M294" s="0" t="n">
         <v>4</v>
@@ -14047,7 +14054,7 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>35</v>
@@ -14056,10 +14063,10 @@
         <v>225</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I295" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M295" s="0" t="n">
         <v>5</v>
@@ -14085,7 +14092,7 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>32</v>
@@ -14097,10 +14104,10 @@
         <v>226</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I296" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M296" s="0" t="n">
         <v>2</v>
@@ -14126,7 +14133,7 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>32</v>
@@ -14138,10 +14145,10 @@
         <v>227</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I297" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M297" s="0" t="n">
         <v>2</v>
@@ -14167,7 +14174,7 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>33</v>
@@ -14179,10 +14186,10 @@
         <v>228</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I298" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M298" s="0" t="n">
         <v>3</v>
@@ -14208,7 +14215,7 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>35</v>
@@ -14220,10 +14227,10 @@
         <v>229</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I299" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M299" s="0" t="n">
         <v>5</v>
@@ -14249,7 +14256,7 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>35</v>
@@ -14261,10 +14268,10 @@
         <v>231</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I300" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M300" s="0" t="n">
         <v>5</v>
@@ -14290,7 +14297,7 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>33</v>
@@ -14302,10 +14309,10 @@
         <v>234</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I301" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M301" s="0" t="n">
         <v>3</v>
@@ -14331,7 +14338,7 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>32</v>
@@ -14343,10 +14350,10 @@
         <v>235</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I302" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M302" s="0" t="n">
         <v>2</v>
@@ -14372,7 +14379,7 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>34</v>
@@ -14384,10 +14391,10 @@
         <v>236</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I303" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M303" s="0" t="n">
         <v>4</v>
@@ -14413,7 +14420,7 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>35</v>
@@ -14422,10 +14429,10 @@
         <v>237</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I304" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M304" s="0" t="n">
         <v>5</v>
@@ -14451,7 +14458,7 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>33</v>
@@ -14463,10 +14470,10 @@
         <v>238</v>
       </c>
       <c r="F305" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I305" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M305" s="0" t="n">
         <v>3</v>
@@ -14492,7 +14499,7 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>34</v>
@@ -14504,10 +14511,10 @@
         <v>239</v>
       </c>
       <c r="F306" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I306" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M306" s="0" t="n">
         <v>4</v>
@@ -14533,7 +14540,7 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>34</v>
@@ -14545,10 +14552,10 @@
         <v>240</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I307" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M307" s="0" t="n">
         <v>4</v>
@@ -14574,7 +14581,7 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>33</v>
@@ -14586,10 +14593,10 @@
         <v>241</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I308" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M308" s="0" t="n">
         <v>3</v>
@@ -14615,7 +14622,7 @@
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>32</v>
@@ -14627,10 +14634,10 @@
         <v>242</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I309" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M309" s="0" t="n">
         <v>2</v>
@@ -14656,7 +14663,7 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>32</v>
@@ -14668,10 +14675,10 @@
         <v>243</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I310" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M310" s="0" t="n">
         <v>2</v>
@@ -14697,7 +14704,7 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>34</v>
@@ -14709,10 +14716,10 @@
         <v>244</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I311" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M311" s="0" t="n">
         <v>4</v>
@@ -14740,7 +14747,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -14749,7 +14756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14759,37 +14766,34 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -14798,7 +14802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14808,31 +14812,29 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="103" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -14844,7 +14846,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
@@ -14856,7 +14858,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -14902,7 +14904,7 @@
         <v>0.0100401606425703</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15166,7 +15168,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -1904,7 +1904,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.640625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.01"/>
@@ -2554,13 +2554,13 @@
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="M65" activeCellId="0" sqref="M65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="96" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.36"/>
@@ -5283,7 +5283,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="101" width="9.47"/>
@@ -5738,12 +5738,12 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A312" activeCellId="0" sqref="A312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.77"/>
@@ -14766,7 +14766,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -14812,7 +14812,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="103" width="8.06"/>

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1904,7 +1904,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.01"/>
@@ -2554,13 +2554,13 @@
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="M65" activeCellId="0" sqref="M65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="96" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.36"/>
@@ -5283,7 +5283,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="101" width="9.47"/>
@@ -5737,13 +5737,13 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A312" activeCellId="0" sqref="A312"/>
+      <selection pane="bottomLeft" activeCell="M260" activeCellId="0" sqref="M260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.77"/>
@@ -14766,7 +14766,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -14812,7 +14812,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="103" width="8.06"/>

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">2020/11/26</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW GOOD RECIPES</t>
+    <t xml:space="preserve">NEW GOOD RECIPES (buthanolic)</t>
   </si>
   <si>
     <t xml:space="preserve">1-BuOH+1-PrOH (1:1)</t>
@@ -1904,7 +1904,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.01"/>
@@ -2554,13 +2554,13 @@
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="M65" activeCellId="0" sqref="M65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="96" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.36"/>
@@ -5283,7 +5283,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="101" width="9.47"/>
@@ -5737,13 +5737,13 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="M260" activeCellId="0" sqref="M260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.77"/>
@@ -14766,7 +14766,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -14812,7 +14812,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="103" width="8.06"/>

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="329">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -952,6 +952,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tcal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make_exps.py ? </t>
   </si>
   <si>
     <t xml:space="preserve">/</t>
@@ -1904,7 +1907,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.01"/>
@@ -2554,13 +2557,13 @@
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="96" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.36"/>
@@ -5283,7 +5286,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="101" width="9.47"/>
@@ -5735,15 +5738,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M260" activeCellId="0" sqref="M260"/>
+      <selection pane="bottomLeft" activeCell="T262" activeCellId="0" sqref="T262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.77"/>
@@ -12740,6 +12743,9 @@
       <c r="R261" s="0" t="n">
         <v>400</v>
       </c>
+      <c r="T261" s="0" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
@@ -12761,7 +12767,7 @@
         <v>296</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M262" s="0" t="n">
         <v>1</v>
@@ -12802,7 +12808,7 @@
         <v>258</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M263" s="0" t="n">
         <v>5</v>
@@ -12843,7 +12849,7 @@
         <v>296</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M264" s="0" t="n">
         <v>5</v>
@@ -12884,7 +12890,7 @@
         <v>270</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M265" s="0" t="n">
         <v>1</v>
@@ -12925,7 +12931,7 @@
         <v>272</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M266" s="0" t="n">
         <v>1</v>
@@ -12966,7 +12972,7 @@
         <v>270</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M267" s="0" t="n">
         <v>5</v>
@@ -13007,7 +13013,7 @@
         <v>272</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M268" s="0" t="n">
         <v>5</v>
@@ -13045,7 +13051,7 @@
         <v>179</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M269" s="0" t="n">
         <v>2</v>
@@ -13083,7 +13089,7 @@
         <v>179</v>
       </c>
       <c r="I270" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M270" s="0" t="n">
         <v>2</v>
@@ -13121,7 +13127,7 @@
         <v>179</v>
       </c>
       <c r="I271" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M271" s="0" t="n">
         <v>4</v>
@@ -13185,7 +13191,7 @@
         <v>179</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M273" s="0" t="n">
         <v>1</v>
@@ -13255,7 +13261,7 @@
         <v>179</v>
       </c>
       <c r="I275" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M275" s="0" t="n">
         <v>4</v>
@@ -13293,7 +13299,7 @@
         <v>179</v>
       </c>
       <c r="I276" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M276" s="0" t="n">
         <v>4</v>
@@ -13331,7 +13337,7 @@
         <v>179</v>
       </c>
       <c r="I277" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M277" s="0" t="n">
         <v>4</v>
@@ -13410,7 +13416,7 @@
         <v>179</v>
       </c>
       <c r="I279" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M279" s="0" t="n">
         <v>3</v>
@@ -13451,7 +13457,7 @@
         <v>179</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M280" s="0" t="n">
         <v>3</v>
@@ -13574,7 +13580,7 @@
         <v>179</v>
       </c>
       <c r="I283" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M283" s="0" t="n">
         <v>4</v>
@@ -13615,7 +13621,7 @@
         <v>179</v>
       </c>
       <c r="I284" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M284" s="0" t="n">
         <v>3</v>
@@ -13697,7 +13703,7 @@
         <v>179</v>
       </c>
       <c r="I286" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M286" s="0" t="n">
         <v>5</v>
@@ -13779,7 +13785,7 @@
         <v>179</v>
       </c>
       <c r="I288" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M288" s="0" t="n">
         <v>5</v>
@@ -13823,7 +13829,7 @@
         <v>284</v>
       </c>
       <c r="K289" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M289" s="0" t="n">
         <v>2</v>
@@ -13908,7 +13914,7 @@
         <v>296</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M291" s="0" t="n">
         <v>2</v>
@@ -14066,7 +14072,7 @@
         <v>179</v>
       </c>
       <c r="I295" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M295" s="0" t="n">
         <v>5</v>
@@ -14271,7 +14277,7 @@
         <v>179</v>
       </c>
       <c r="I300" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M300" s="0" t="n">
         <v>5</v>
@@ -14353,7 +14359,7 @@
         <v>179</v>
       </c>
       <c r="I302" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M302" s="0" t="n">
         <v>2</v>
@@ -14432,7 +14438,7 @@
         <v>179</v>
       </c>
       <c r="I304" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M304" s="0" t="n">
         <v>5</v>
@@ -14473,7 +14479,7 @@
         <v>179</v>
       </c>
       <c r="I305" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M305" s="0" t="n">
         <v>3</v>
@@ -14555,7 +14561,7 @@
         <v>179</v>
       </c>
       <c r="I307" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M307" s="0" t="n">
         <v>4</v>
@@ -14596,7 +14602,7 @@
         <v>179</v>
       </c>
       <c r="I308" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M308" s="0" t="n">
         <v>3</v>
@@ -14637,7 +14643,7 @@
         <v>179</v>
       </c>
       <c r="I309" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M309" s="0" t="n">
         <v>2</v>
@@ -14766,28 +14772,28 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -14812,7 +14818,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="103" width="8.06"/>
@@ -14820,21 +14826,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="103" t="s">
         <v>324</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -14846,7 +14852,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
@@ -14858,7 +14864,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -1907,7 +1907,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.01"/>
@@ -2558,12 +2558,12 @@
   <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="96" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.36"/>
@@ -5286,7 +5286,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="101" width="9.47"/>
@@ -5741,16 +5741,16 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="T262" activeCellId="0" sqref="T262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="108" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.63"/>
@@ -14772,7 +14772,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -14818,7 +14818,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="103" width="8.06"/>

--- a/experimental.xlsx
+++ b/experimental.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="334">
   <si>
     <t xml:space="preserve">Neha Original Recipe</t>
   </si>
@@ -973,6 +973,12 @@
   </si>
   <si>
     <t xml:space="preserve">9x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as 217 ?failed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is 218</t>
   </si>
   <si>
     <t xml:space="preserve">failed (second layer vDOC=20</t>
@@ -1009,6 +1015,12 @@
       </rPr>
       <t xml:space="preserve"> layer vDOC=20)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed …? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
   </si>
   <si>
     <t xml:space="preserve">SC1</t>
@@ -1834,7 +1846,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5762,10 +5774,10 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E194" activeCellId="0" sqref="E194"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="K304" activeCellId="0" sqref="K304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13529,6 +13541,9 @@
       <c r="I281" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="K281" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="M281" s="1" t="n">
         <v>3</v>
       </c>
@@ -13548,7 +13563,7 @@
         <v>500</v>
       </c>
       <c r="S281" s="1" t="n">
-        <v>7374</v>
+        <v>-7374</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13775,6 +13790,9 @@
       <c r="I287" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="K287" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="M287" s="1" t="n">
         <v>5</v>
       </c>
@@ -13858,7 +13876,7 @@
         <v>285</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M289" s="1" t="n">
         <v>2</v>
@@ -13943,7 +13961,7 @@
         <v>297</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M291" s="1" t="n">
         <v>2</v>
@@ -14431,6 +14449,9 @@
       <c r="I303" s="1" t="s">
         <v>297</v>
       </c>
+      <c r="K303" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="M303" s="1" t="n">
         <v>4</v>
       </c>
@@ -14739,7 +14760,7 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>34</v>
@@ -14805,24 +14826,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -14855,21 +14876,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>10</v>
@@ -14881,7 +14902,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>5</v>
@@ -14893,7 +14914,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
